--- a/Data/Sea_Ice_Index_Regional_Monthly_Data_G02135_v3.0.xlsx
+++ b/Data/Sea_Ice_Index_Regional_Monthly_Data_G02135_v3.0.xlsx
@@ -685,7 +685,7 @@
         <v>1031144.947</v>
       </c>
       <c r="G5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H5">
         <v>904254.808</v>
@@ -762,7 +762,7 @@
         <v>1036412.094</v>
       </c>
       <c r="G6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H6">
         <v>983828.079</v>
@@ -916,7 +916,7 @@
         <v>1211558.994</v>
       </c>
       <c r="G8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H8">
         <v>1099459.619</v>
@@ -993,7 +993,7 @@
         <v>1448513.411</v>
       </c>
       <c r="G9">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H9">
         <v>1336879.236</v>
@@ -1070,7 +1070,7 @@
         <v>1374131.848</v>
       </c>
       <c r="G10">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H10">
         <v>1283182.03</v>
@@ -1147,7 +1147,7 @@
         <v>1229934.259</v>
       </c>
       <c r="G11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H11">
         <v>1095967.299</v>
@@ -1224,7 +1224,7 @@
         <v>1057288.334</v>
       </c>
       <c r="G12">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H12">
         <v>933987.085</v>
@@ -1301,7 +1301,7 @@
         <v>1084437.721</v>
       </c>
       <c r="G13">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H13">
         <v>1089998.278</v>
@@ -1366,7 +1366,7 @@
         <v>1068307.455</v>
       </c>
       <c r="G14">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H14">
         <v>965922.738</v>
@@ -1443,7 +1443,7 @@
         <v>1193665.498</v>
       </c>
       <c r="G15">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H15">
         <v>1058922.068</v>
@@ -1520,7 +1520,7 @@
         <v>1329860.522</v>
       </c>
       <c r="G16">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H16">
         <v>1136147.243</v>
@@ -1597,7 +1597,7 @@
         <v>1287561.467</v>
       </c>
       <c r="G17">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H17">
         <v>1215638.88</v>
@@ -1674,7 +1674,7 @@
         <v>1228747.845</v>
       </c>
       <c r="G18">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H18">
         <v>1084515.397</v>
@@ -1751,7 +1751,7 @@
         <v>1470519.833</v>
       </c>
       <c r="G19">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H19">
         <v>1280232.597</v>
@@ -1828,7 +1828,7 @@
         <v>1268010.241</v>
       </c>
       <c r="G20">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H20">
         <v>1097312.672</v>
@@ -1905,7 +1905,7 @@
         <v>1196998.783</v>
       </c>
       <c r="G21">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H21">
         <v>1048310.792</v>
@@ -1982,7 +1982,7 @@
         <v>1044027.218</v>
       </c>
       <c r="G22">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22">
         <v>939445.448</v>
@@ -2059,7 +2059,7 @@
         <v>1139388.231</v>
       </c>
       <c r="G23">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H23">
         <v>994390.502</v>
@@ -2136,7 +2136,7 @@
         <v>1057649.044</v>
       </c>
       <c r="G24">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H24">
         <v>931043.046</v>
@@ -2213,7 +2213,7 @@
         <v>1062272.792</v>
       </c>
       <c r="G25">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H25">
         <v>919203.596</v>
@@ -2290,7 +2290,7 @@
         <v>1138024.792</v>
       </c>
       <c r="G26">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H26">
         <v>944484.118</v>
@@ -2444,7 +2444,7 @@
         <v>1082520.868</v>
       </c>
       <c r="G28">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H28">
         <v>955160.708</v>
@@ -2521,7 +2521,7 @@
         <v>1041501.967</v>
       </c>
       <c r="G29">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H29">
         <v>939793.62</v>
@@ -2906,7 +2906,7 @@
         <v>1244280.069</v>
       </c>
       <c r="G34">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H34">
         <v>1037003.661</v>
@@ -2983,7 +2983,7 @@
         <v>1187784.173</v>
       </c>
       <c r="G35">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H35">
         <v>1052861.228</v>
@@ -3214,7 +3214,7 @@
         <v>1205368.669</v>
       </c>
       <c r="G38">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H38">
         <v>1002430.618</v>
@@ -3368,7 +3368,7 @@
         <v>1169652.429</v>
       </c>
       <c r="G40">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H40">
         <v>1067392.535</v>
@@ -3445,7 +3445,7 @@
         <v>1196506.284</v>
       </c>
       <c r="G41">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H41">
         <v>1102451.314</v>
@@ -3522,7 +3522,7 @@
         <v>1085965.078</v>
       </c>
       <c r="G42">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H42">
         <v>897713.709</v>
@@ -3599,7 +3599,7 @@
         <v>1074042.309</v>
       </c>
       <c r="G43">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H43">
         <v>1058836.655</v>
@@ -3671,6 +3671,12 @@
       </c>
       <c r="E44">
         <v>24</v>
+      </c>
+      <c r="F44">
+        <v>1029593.173</v>
+      </c>
+      <c r="G44">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3863,7 +3869,7 @@
         <v>761228.252</v>
       </c>
       <c r="G5">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="H5">
         <v>761228.252</v>
@@ -3940,7 +3946,7 @@
         <v>761228.252</v>
       </c>
       <c r="G6">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="H6">
         <v>761228.252</v>
@@ -4017,7 +4023,7 @@
         <v>761228.252</v>
       </c>
       <c r="G7">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="H7">
         <v>761186.708</v>
@@ -4171,7 +4177,7 @@
         <v>761228.252</v>
       </c>
       <c r="G9">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="H9">
         <v>761228.252</v>
@@ -4248,7 +4254,7 @@
         <v>761228.252</v>
       </c>
       <c r="G10">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="H10">
         <v>761228.252</v>
@@ -4325,7 +4331,7 @@
         <v>761228.252</v>
       </c>
       <c r="G11">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="H11">
         <v>761185.697</v>
@@ -4402,7 +4408,7 @@
         <v>761228.252</v>
       </c>
       <c r="G12">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="H12">
         <v>761228.252</v>
@@ -4479,7 +4485,7 @@
         <v>761228.252</v>
       </c>
       <c r="G13">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="H13">
         <v>761186.319</v>
@@ -4544,7 +4550,7 @@
         <v>761228.252</v>
       </c>
       <c r="G14">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="H14">
         <v>759625.972</v>
@@ -4775,7 +4781,7 @@
         <v>761228.252</v>
       </c>
       <c r="G17">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="H17">
         <v>761228.252</v>
@@ -4852,7 +4858,7 @@
         <v>761228.252</v>
       </c>
       <c r="G18">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="H18">
         <v>761185.811</v>
@@ -4929,7 +4935,7 @@
         <v>761228.252</v>
       </c>
       <c r="G19">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="H19">
         <v>761228.252</v>
@@ -5006,7 +5012,7 @@
         <v>761228.252</v>
       </c>
       <c r="G20">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="H20">
         <v>761228.252</v>
@@ -5083,7 +5089,7 @@
         <v>761228.252</v>
       </c>
       <c r="G21">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="H21">
         <v>761228.252</v>
@@ -5160,7 +5166,7 @@
         <v>761228.252</v>
       </c>
       <c r="G22">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="H22">
         <v>761228.252</v>
@@ -5237,7 +5243,7 @@
         <v>761228.252</v>
       </c>
       <c r="G23">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="H23">
         <v>761228.252</v>
@@ -5314,7 +5320,7 @@
         <v>761228.252</v>
       </c>
       <c r="G24">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="H24">
         <v>760520.455</v>
@@ -5391,7 +5397,7 @@
         <v>761228.252</v>
       </c>
       <c r="G25">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="H25">
         <v>761228.252</v>
@@ -5468,7 +5474,7 @@
         <v>761228.252</v>
       </c>
       <c r="G26">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="H26">
         <v>761228.252</v>
@@ -5545,7 +5551,7 @@
         <v>761228.252</v>
       </c>
       <c r="G27">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="H27">
         <v>761228.252</v>
@@ -5622,7 +5628,7 @@
         <v>761228.252</v>
       </c>
       <c r="G28">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="H28">
         <v>761228.252</v>
@@ -5699,7 +5705,7 @@
         <v>761228.252</v>
       </c>
       <c r="G29">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="H29">
         <v>761228.252</v>
@@ -6007,7 +6013,7 @@
         <v>761228.252</v>
       </c>
       <c r="G33">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="H33">
         <v>761207.189</v>
@@ -6084,7 +6090,7 @@
         <v>761228.252</v>
       </c>
       <c r="G34">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="H34">
         <v>761228.252</v>
@@ -6161,7 +6167,7 @@
         <v>761228.252</v>
       </c>
       <c r="G35">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="H35">
         <v>761228.252</v>
@@ -6238,7 +6244,7 @@
         <v>761228.252</v>
       </c>
       <c r="G36">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="H36">
         <v>758001.603</v>
@@ -6315,7 +6321,7 @@
         <v>761228.252</v>
       </c>
       <c r="G37">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="H37">
         <v>761228.252</v>
@@ -6392,7 +6398,7 @@
         <v>761228.252</v>
       </c>
       <c r="G38">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="H38">
         <v>761228.252</v>
@@ -6469,7 +6475,7 @@
         <v>761228.252</v>
       </c>
       <c r="G39">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="H39">
         <v>761228.252</v>
@@ -6546,7 +6552,7 @@
         <v>761228.252</v>
       </c>
       <c r="G40">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="H40">
         <v>761228.252</v>
@@ -6623,7 +6629,7 @@
         <v>761228.252</v>
       </c>
       <c r="G41">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="H41">
         <v>761228.252</v>
@@ -6700,7 +6706,7 @@
         <v>761228.252</v>
       </c>
       <c r="G42">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="H42">
         <v>761144.56</v>
@@ -6777,7 +6783,7 @@
         <v>761228.252</v>
       </c>
       <c r="G43">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="H43">
         <v>761228.252</v>
@@ -6849,6 +6855,12 @@
       </c>
       <c r="E44">
         <v>22</v>
+      </c>
+      <c r="F44">
+        <v>761228.252</v>
+      </c>
+      <c r="G44">
+        <v>23.5</v>
       </c>
     </row>
   </sheetData>
@@ -9256,7 +9268,7 @@
         <v>3154333.931</v>
       </c>
       <c r="G34">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H34">
         <v>3145255.139</v>
@@ -9333,7 +9345,7 @@
         <v>3170076.277</v>
       </c>
       <c r="G35">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H35">
         <v>3162928.13</v>
@@ -9410,7 +9422,7 @@
         <v>3167821.821</v>
       </c>
       <c r="G36">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H36">
         <v>3146501.965</v>
@@ -9487,7 +9499,7 @@
         <v>3138620.551</v>
       </c>
       <c r="G37">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H37">
         <v>3135376.521</v>
@@ -9564,7 +9576,7 @@
         <v>3064066.379</v>
       </c>
       <c r="G38">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H38">
         <v>3141520.278</v>
@@ -9641,7 +9653,7 @@
         <v>3160451.397</v>
       </c>
       <c r="G39">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H39">
         <v>3143250.361</v>
@@ -9718,7 +9730,7 @@
         <v>3098468.619</v>
       </c>
       <c r="G40">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H40">
         <v>3163162.862</v>
@@ -9795,7 +9807,7 @@
         <v>3131411.867</v>
       </c>
       <c r="G41">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H41">
         <v>3138433.56</v>
@@ -9949,7 +9961,7 @@
         <v>3109678.947</v>
       </c>
       <c r="G43">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H43">
         <v>3174487.285</v>
@@ -10021,6 +10033,12 @@
       </c>
       <c r="E44">
         <v>32</v>
+      </c>
+      <c r="F44">
+        <v>3062694.119</v>
+      </c>
+      <c r="G44">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -10213,7 +10231,7 @@
         <v>3224681.689</v>
       </c>
       <c r="G5">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H5">
         <v>3224681.689</v>
@@ -10290,7 +10308,7 @@
         <v>3224681.689</v>
       </c>
       <c r="G6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H6">
         <v>3224681.689</v>
@@ -10367,7 +10385,7 @@
         <v>3224681.689</v>
       </c>
       <c r="G7">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H7">
         <v>3224681.689</v>
@@ -10444,7 +10462,7 @@
         <v>3224681.689</v>
       </c>
       <c r="G8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H8">
         <v>3224681.689</v>
@@ -10521,7 +10539,7 @@
         <v>3223676.159</v>
       </c>
       <c r="G9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H9">
         <v>3224681.689</v>
@@ -10598,7 +10616,7 @@
         <v>3224681.689</v>
       </c>
       <c r="G10">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H10">
         <v>3224681.689</v>
@@ -10675,7 +10693,7 @@
         <v>3212533.121</v>
       </c>
       <c r="G11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H11">
         <v>3224681.689</v>
@@ -10752,7 +10770,7 @@
         <v>3224681.689</v>
       </c>
       <c r="G12">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H12">
         <v>3224681.689</v>
@@ -10829,7 +10847,7 @@
         <v>3224681.689</v>
       </c>
       <c r="G13">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H13">
         <v>3224200.187</v>
@@ -10894,7 +10912,7 @@
         <v>3224660.334</v>
       </c>
       <c r="G14">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H14">
         <v>3224659.783</v>
@@ -10971,7 +10989,7 @@
         <v>3224511.961</v>
       </c>
       <c r="G15">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H15">
         <v>3224659.804</v>
@@ -11048,7 +11066,7 @@
         <v>3224533.154</v>
       </c>
       <c r="G16">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H16">
         <v>3223851.544</v>
@@ -11125,7 +11143,7 @@
         <v>3224660.513</v>
       </c>
       <c r="G17">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H17">
         <v>3224681.689</v>
@@ -11202,7 +11220,7 @@
         <v>3222032.79</v>
       </c>
       <c r="G18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H18">
         <v>3224375.306</v>
@@ -11279,7 +11297,7 @@
         <v>3224681.689</v>
       </c>
       <c r="G19">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H19">
         <v>3224309.814</v>
@@ -11356,7 +11374,7 @@
         <v>3224681.689</v>
       </c>
       <c r="G20">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H20">
         <v>3224572.254</v>
@@ -11433,7 +11451,7 @@
         <v>3224342.712</v>
       </c>
       <c r="G21">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H21">
         <v>3210094.287</v>
@@ -11510,7 +11528,7 @@
         <v>3223329.571</v>
       </c>
       <c r="G22">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H22">
         <v>3223718.88</v>
@@ -11587,7 +11605,7 @@
         <v>3224066.909</v>
       </c>
       <c r="G23">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H23">
         <v>3224681.689</v>
@@ -11664,7 +11682,7 @@
         <v>3224681.689</v>
       </c>
       <c r="G24">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H24">
         <v>3224681.689</v>
@@ -11741,7 +11759,7 @@
         <v>3224639.308</v>
       </c>
       <c r="G25">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H25">
         <v>3224506.581</v>
@@ -11818,7 +11836,7 @@
         <v>3221099.402</v>
       </c>
       <c r="G26">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H26">
         <v>3224681.689</v>
@@ -11895,7 +11913,7 @@
         <v>3224681.689</v>
       </c>
       <c r="G27">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H27">
         <v>3224681.689</v>
@@ -11972,7 +11990,7 @@
         <v>3224681.689</v>
       </c>
       <c r="G28">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H28">
         <v>3223543.185</v>
@@ -12049,7 +12067,7 @@
         <v>3224681.689</v>
       </c>
       <c r="G29">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H29">
         <v>3224681.689</v>
@@ -12126,7 +12144,7 @@
         <v>3221930.704</v>
       </c>
       <c r="G30">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H30">
         <v>3222361.602</v>
@@ -12203,7 +12221,7 @@
         <v>3224681.689</v>
       </c>
       <c r="G31">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H31">
         <v>3224615.939</v>
@@ -12280,7 +12298,7 @@
         <v>3224639.479</v>
       </c>
       <c r="G32">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H32">
         <v>3203598.131</v>
@@ -12357,7 +12375,7 @@
         <v>3224448.667</v>
       </c>
       <c r="G33">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H33">
         <v>3224681.689</v>
@@ -12434,7 +12452,7 @@
         <v>3224681.689</v>
       </c>
       <c r="G34">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H34">
         <v>3224681.689</v>
@@ -12511,7 +12529,7 @@
         <v>3224681.689</v>
       </c>
       <c r="G35">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H35">
         <v>3224681.689</v>
@@ -12588,7 +12606,7 @@
         <v>3224639.291</v>
       </c>
       <c r="G36">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H36">
         <v>3223806.067</v>
@@ -12665,7 +12683,7 @@
         <v>3224237.633</v>
       </c>
       <c r="G37">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H37">
         <v>3223784.292</v>
@@ -12742,7 +12760,7 @@
         <v>3182391.748</v>
       </c>
       <c r="G38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H38">
         <v>3221577.786</v>
@@ -12819,7 +12837,7 @@
         <v>3223622.975</v>
       </c>
       <c r="G39">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H39">
         <v>3220762.747</v>
@@ -12896,7 +12914,7 @@
         <v>3209795.387</v>
       </c>
       <c r="G40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H40">
         <v>3224681.689</v>
@@ -12973,7 +12991,7 @@
         <v>3221652.096</v>
       </c>
       <c r="G41">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H41">
         <v>3222294.648</v>
@@ -13127,7 +13145,7 @@
         <v>3220769.48</v>
       </c>
       <c r="G43">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H43">
         <v>3224681.689</v>
@@ -13199,6 +13217,12 @@
       </c>
       <c r="E44">
         <v>1</v>
+      </c>
+      <c r="F44">
+        <v>3177423.239</v>
+      </c>
+      <c r="G44">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -13545,7 +13569,7 @@
         <v>793619.255</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H7">
         <v>794775.128</v>
@@ -13699,7 +13723,7 @@
         <v>799894.925</v>
       </c>
       <c r="G9">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H9">
         <v>804297.192</v>
@@ -13853,7 +13877,7 @@
         <v>803962.763</v>
       </c>
       <c r="G11">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H11">
         <v>813762.302</v>
@@ -13930,7 +13954,7 @@
         <v>798081.62</v>
       </c>
       <c r="G12">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H12">
         <v>799810.388</v>
@@ -14007,7 +14031,7 @@
         <v>804122.363</v>
       </c>
       <c r="G13">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H13">
         <v>810569.94</v>
@@ -14072,7 +14096,7 @@
         <v>819997.279</v>
       </c>
       <c r="G14">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H14">
         <v>812125.272</v>
@@ -14226,7 +14250,7 @@
         <v>812292.105</v>
       </c>
       <c r="G16">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H16">
         <v>801062.148</v>
@@ -14303,7 +14327,7 @@
         <v>809977.392</v>
       </c>
       <c r="G17">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H17">
         <v>813803.652</v>
@@ -14380,7 +14404,7 @@
         <v>821883.778</v>
       </c>
       <c r="G18">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H18">
         <v>812328.071</v>
@@ -14457,7 +14481,7 @@
         <v>810691.069</v>
       </c>
       <c r="G19">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H19">
         <v>816574.551</v>
@@ -14534,7 +14558,7 @@
         <v>789946.615</v>
       </c>
       <c r="G20">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H20">
         <v>810053.095</v>
@@ -14611,7 +14635,7 @@
         <v>811139.093</v>
       </c>
       <c r="G21">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H21">
         <v>809733.817</v>
@@ -14688,7 +14712,7 @@
         <v>795781.372</v>
       </c>
       <c r="G22">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H22">
         <v>801205.428</v>
@@ -14765,7 +14789,7 @@
         <v>809103.506</v>
       </c>
       <c r="G23">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H23">
         <v>803722.628</v>
@@ -14842,7 +14866,7 @@
         <v>808822.635</v>
       </c>
       <c r="G24">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H24">
         <v>809780.65</v>
@@ -14919,7 +14943,7 @@
         <v>818140.367</v>
       </c>
       <c r="G25">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H25">
         <v>820805.085</v>
@@ -14996,7 +15020,7 @@
         <v>803998.521</v>
       </c>
       <c r="G26">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H26">
         <v>814052.602</v>
@@ -15073,7 +15097,7 @@
         <v>806703.667</v>
       </c>
       <c r="G27">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H27">
         <v>809548.342</v>
@@ -15150,7 +15174,7 @@
         <v>789460.674</v>
       </c>
       <c r="G28">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H28">
         <v>780433.879</v>
@@ -15227,7 +15251,7 @@
         <v>815041.15</v>
       </c>
       <c r="G29">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H29">
         <v>795873.946</v>
@@ -15304,7 +15328,7 @@
         <v>793574.373</v>
       </c>
       <c r="G30">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H30">
         <v>800095.984</v>
@@ -15381,7 +15405,7 @@
         <v>805453.226</v>
       </c>
       <c r="G31">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H31">
         <v>810692.213</v>
@@ -15458,7 +15482,7 @@
         <v>807787.088</v>
       </c>
       <c r="G32">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H32">
         <v>823200.659</v>
@@ -15535,7 +15559,7 @@
         <v>794973.177</v>
       </c>
       <c r="G33">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H33">
         <v>784750.447</v>
@@ -15612,7 +15636,7 @@
         <v>817409.331</v>
       </c>
       <c r="G34">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H34">
         <v>799659.387</v>
@@ -15689,7 +15713,7 @@
         <v>807881.244</v>
       </c>
       <c r="G35">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H35">
         <v>811443.337</v>
@@ -15766,7 +15790,7 @@
         <v>806642.551</v>
       </c>
       <c r="G36">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H36">
         <v>817251.933</v>
@@ -15843,7 +15867,7 @@
         <v>808385.202</v>
       </c>
       <c r="G37">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H37">
         <v>802456.112</v>
@@ -15920,7 +15944,7 @@
         <v>817227.538</v>
       </c>
       <c r="G38">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H38">
         <v>817370.327</v>
@@ -15997,7 +16021,7 @@
         <v>801845.25</v>
       </c>
       <c r="G39">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H39">
         <v>809893.7</v>
@@ -16074,7 +16098,7 @@
         <v>792165.252</v>
       </c>
       <c r="G40">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H40">
         <v>794825.433</v>
@@ -16151,7 +16175,7 @@
         <v>799188.294</v>
       </c>
       <c r="G41">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H41">
         <v>798828.84</v>
@@ -16228,7 +16252,7 @@
         <v>811552.718</v>
       </c>
       <c r="G42">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H42">
         <v>792852.341</v>
@@ -16305,7 +16329,7 @@
         <v>812698.306</v>
       </c>
       <c r="G43">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H43">
         <v>785559.305</v>
@@ -16376,6 +16400,12 @@
         <v>760890.919</v>
       </c>
       <c r="E44">
+        <v>6</v>
+      </c>
+      <c r="F44">
+        <v>787985.959</v>
+      </c>
+      <c r="G44">
         <v>6</v>
       </c>
     </row>
@@ -16569,7 +16599,7 @@
         <v>830271.256</v>
       </c>
       <c r="G5">
-        <v>22</v>
+        <v>22.5</v>
       </c>
       <c r="H5">
         <v>830271.256</v>
@@ -16646,7 +16676,7 @@
         <v>830271.256</v>
       </c>
       <c r="G6">
-        <v>22</v>
+        <v>22.5</v>
       </c>
       <c r="H6">
         <v>830271.256</v>
@@ -16723,7 +16753,7 @@
         <v>830271.256</v>
       </c>
       <c r="G7">
-        <v>22</v>
+        <v>22.5</v>
       </c>
       <c r="H7">
         <v>830271.256</v>
@@ -16800,7 +16830,7 @@
         <v>830271.256</v>
       </c>
       <c r="G8">
-        <v>22</v>
+        <v>22.5</v>
       </c>
       <c r="H8">
         <v>830271.256</v>
@@ -16877,7 +16907,7 @@
         <v>830271.256</v>
       </c>
       <c r="G9">
-        <v>22</v>
+        <v>22.5</v>
       </c>
       <c r="H9">
         <v>830271.256</v>
@@ -16954,7 +16984,7 @@
         <v>830271.256</v>
       </c>
       <c r="G10">
-        <v>22</v>
+        <v>22.5</v>
       </c>
       <c r="H10">
         <v>830271.256</v>
@@ -17031,7 +17061,7 @@
         <v>830271.256</v>
       </c>
       <c r="G11">
-        <v>22</v>
+        <v>22.5</v>
       </c>
       <c r="H11">
         <v>830271.256</v>
@@ -17108,7 +17138,7 @@
         <v>830271.256</v>
       </c>
       <c r="G12">
-        <v>22</v>
+        <v>22.5</v>
       </c>
       <c r="H12">
         <v>830271.256</v>
@@ -17185,7 +17215,7 @@
         <v>830271.256</v>
       </c>
       <c r="G13">
-        <v>22</v>
+        <v>22.5</v>
       </c>
       <c r="H13">
         <v>830271.256</v>
@@ -17250,7 +17280,7 @@
         <v>830271.256</v>
       </c>
       <c r="G14">
-        <v>22</v>
+        <v>22.5</v>
       </c>
       <c r="H14">
         <v>830271.256</v>
@@ -17404,7 +17434,7 @@
         <v>830271.256</v>
       </c>
       <c r="G16">
-        <v>22</v>
+        <v>22.5</v>
       </c>
       <c r="H16">
         <v>830271.256</v>
@@ -17481,7 +17511,7 @@
         <v>830271.256</v>
       </c>
       <c r="G17">
-        <v>22</v>
+        <v>22.5</v>
       </c>
       <c r="H17">
         <v>830271.256</v>
@@ -17635,7 +17665,7 @@
         <v>830271.256</v>
       </c>
       <c r="G19">
-        <v>22</v>
+        <v>22.5</v>
       </c>
       <c r="H19">
         <v>830271.256</v>
@@ -17712,7 +17742,7 @@
         <v>830271.256</v>
       </c>
       <c r="G20">
-        <v>22</v>
+        <v>22.5</v>
       </c>
       <c r="H20">
         <v>830271.256</v>
@@ -17789,7 +17819,7 @@
         <v>830271.256</v>
       </c>
       <c r="G21">
-        <v>22</v>
+        <v>22.5</v>
       </c>
       <c r="H21">
         <v>830271.256</v>
@@ -17943,7 +17973,7 @@
         <v>830271.256</v>
       </c>
       <c r="G23">
-        <v>22</v>
+        <v>22.5</v>
       </c>
       <c r="H23">
         <v>830251.002</v>
@@ -18020,7 +18050,7 @@
         <v>830271.256</v>
       </c>
       <c r="G24">
-        <v>22</v>
+        <v>22.5</v>
       </c>
       <c r="H24">
         <v>830271.256</v>
@@ -18097,7 +18127,7 @@
         <v>830271.256</v>
       </c>
       <c r="G25">
-        <v>22</v>
+        <v>22.5</v>
       </c>
       <c r="H25">
         <v>830271.256</v>
@@ -18174,7 +18204,7 @@
         <v>830271.256</v>
       </c>
       <c r="G26">
-        <v>22</v>
+        <v>22.5</v>
       </c>
       <c r="H26">
         <v>830271.256</v>
@@ -18251,7 +18281,7 @@
         <v>830271.256</v>
       </c>
       <c r="G27">
-        <v>22</v>
+        <v>22.5</v>
       </c>
       <c r="H27">
         <v>830271.256</v>
@@ -18328,7 +18358,7 @@
         <v>830271.256</v>
       </c>
       <c r="G28">
-        <v>22</v>
+        <v>22.5</v>
       </c>
       <c r="H28">
         <v>830271.256</v>
@@ -18405,7 +18435,7 @@
         <v>830271.256</v>
       </c>
       <c r="G29">
-        <v>22</v>
+        <v>22.5</v>
       </c>
       <c r="H29">
         <v>830271.256</v>
@@ -18482,7 +18512,7 @@
         <v>830271.256</v>
       </c>
       <c r="G30">
-        <v>22</v>
+        <v>22.5</v>
       </c>
       <c r="H30">
         <v>830271.256</v>
@@ -18559,7 +18589,7 @@
         <v>830271.256</v>
       </c>
       <c r="G31">
-        <v>22</v>
+        <v>22.5</v>
       </c>
       <c r="H31">
         <v>830230.493</v>
@@ -18636,7 +18666,7 @@
         <v>830271.256</v>
       </c>
       <c r="G32">
-        <v>22</v>
+        <v>22.5</v>
       </c>
       <c r="H32">
         <v>830271.256</v>
@@ -18790,7 +18820,7 @@
         <v>830271.256</v>
       </c>
       <c r="G34">
-        <v>22</v>
+        <v>22.5</v>
       </c>
       <c r="H34">
         <v>830271.256</v>
@@ -18867,7 +18897,7 @@
         <v>830271.256</v>
       </c>
       <c r="G35">
-        <v>22</v>
+        <v>22.5</v>
       </c>
       <c r="H35">
         <v>830271.256</v>
@@ -18944,7 +18974,7 @@
         <v>830271.256</v>
       </c>
       <c r="G36">
-        <v>22</v>
+        <v>22.5</v>
       </c>
       <c r="H36">
         <v>830271.256</v>
@@ -19021,7 +19051,7 @@
         <v>830271.256</v>
       </c>
       <c r="G37">
-        <v>22</v>
+        <v>22.5</v>
       </c>
       <c r="H37">
         <v>830271.256</v>
@@ -19098,7 +19128,7 @@
         <v>830271.256</v>
       </c>
       <c r="G38">
-        <v>22</v>
+        <v>22.5</v>
       </c>
       <c r="H38">
         <v>830271.256</v>
@@ -19175,7 +19205,7 @@
         <v>830271.256</v>
       </c>
       <c r="G39">
-        <v>22</v>
+        <v>22.5</v>
       </c>
       <c r="H39">
         <v>830271.256</v>
@@ -19252,7 +19282,7 @@
         <v>830271.256</v>
       </c>
       <c r="G40">
-        <v>22</v>
+        <v>22.5</v>
       </c>
       <c r="H40">
         <v>830271.256</v>
@@ -19329,7 +19359,7 @@
         <v>830271.256</v>
       </c>
       <c r="G41">
-        <v>22</v>
+        <v>22.5</v>
       </c>
       <c r="H41">
         <v>830271.256</v>
@@ -19406,7 +19436,7 @@
         <v>830271.256</v>
       </c>
       <c r="G42">
-        <v>22</v>
+        <v>22.5</v>
       </c>
       <c r="H42">
         <v>830271.256</v>
@@ -19483,7 +19513,7 @@
         <v>830271.256</v>
       </c>
       <c r="G43">
-        <v>22</v>
+        <v>22.5</v>
       </c>
       <c r="H43">
         <v>829967.404</v>
@@ -19555,6 +19585,12 @@
       </c>
       <c r="E44">
         <v>1</v>
+      </c>
+      <c r="F44">
+        <v>830271.256</v>
+      </c>
+      <c r="G44">
+        <v>22.5</v>
       </c>
     </row>
   </sheetData>
@@ -19978,7 +20014,7 @@
         <v>1283447.523</v>
       </c>
       <c r="G8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H8">
         <v>1285801.525</v>
@@ -20055,7 +20091,7 @@
         <v>1277138.659</v>
       </c>
       <c r="G9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H9">
         <v>1284541.738</v>
@@ -20132,7 +20168,7 @@
         <v>1285407.74</v>
       </c>
       <c r="G10">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H10">
         <v>1280595.82</v>
@@ -20363,7 +20399,7 @@
         <v>1285524.048</v>
       </c>
       <c r="G13">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H13">
         <v>1288823.61</v>
@@ -20428,7 +20464,7 @@
         <v>1296559.277</v>
       </c>
       <c r="G14">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H14">
         <v>1292309.909</v>
@@ -20659,7 +20695,7 @@
         <v>1282937.019</v>
       </c>
       <c r="G17">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H17">
         <v>1273068.84</v>
@@ -20736,7 +20772,7 @@
         <v>1294791.965</v>
       </c>
       <c r="G18">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H18">
         <v>1289504.592</v>
@@ -20890,7 +20926,7 @@
         <v>1282488.939</v>
       </c>
       <c r="G20">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H20">
         <v>1291646.56</v>
@@ -20967,7 +21003,7 @@
         <v>1287652.253</v>
       </c>
       <c r="G21">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H21">
         <v>1290544.028</v>
@@ -21121,7 +21157,7 @@
         <v>1281268.605</v>
       </c>
       <c r="G23">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H23">
         <v>1272322.673</v>
@@ -21198,7 +21234,7 @@
         <v>1289598.462</v>
       </c>
       <c r="G24">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H24">
         <v>1293508.232</v>
@@ -21275,7 +21311,7 @@
         <v>1290707.735</v>
       </c>
       <c r="G25">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H25">
         <v>1292240.349</v>
@@ -21352,7 +21388,7 @@
         <v>1292321.151</v>
       </c>
       <c r="G26">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H26">
         <v>1287467.61</v>
@@ -21429,7 +21465,7 @@
         <v>1277311.509</v>
       </c>
       <c r="G27">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H27">
         <v>1279271.602</v>
@@ -21506,7 +21542,7 @@
         <v>1287443.356</v>
       </c>
       <c r="G28">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H28">
         <v>1281555.479</v>
@@ -21583,7 +21619,7 @@
         <v>1288775.069</v>
       </c>
       <c r="G29">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H29">
         <v>1281501.931</v>
@@ -21660,7 +21696,7 @@
         <v>1280389.074</v>
       </c>
       <c r="G30">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H30">
         <v>1288755.632</v>
@@ -21737,7 +21773,7 @@
         <v>1286933.845</v>
       </c>
       <c r="G31">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H31">
         <v>1278233.363</v>
@@ -21891,7 +21927,7 @@
         <v>1278901.663</v>
       </c>
       <c r="G33">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H33">
         <v>1280373.371</v>
@@ -21968,7 +22004,7 @@
         <v>1278986.55</v>
       </c>
       <c r="G34">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H34">
         <v>1278391.549</v>
@@ -22045,7 +22081,7 @@
         <v>1288489.063</v>
       </c>
       <c r="G35">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H35">
         <v>1267613.476</v>
@@ -22122,7 +22158,7 @@
         <v>1285450.976</v>
       </c>
       <c r="G36">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H36">
         <v>1290238.212</v>
@@ -22199,7 +22235,7 @@
         <v>1278958.543</v>
       </c>
       <c r="G37">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H37">
         <v>1262183.77</v>
@@ -22276,7 +22312,7 @@
         <v>1286200.276</v>
       </c>
       <c r="G38">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H38">
         <v>1288213.638</v>
@@ -22353,7 +22389,7 @@
         <v>1280857.006</v>
       </c>
       <c r="G39">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H39">
         <v>1274864.1</v>
@@ -22430,7 +22466,7 @@
         <v>1293827.901</v>
       </c>
       <c r="G40">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H40">
         <v>1266143.216</v>
@@ -22507,7 +22543,7 @@
         <v>1292567.891</v>
       </c>
       <c r="G41">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H41">
         <v>1295378.698</v>
@@ -22584,7 +22620,7 @@
         <v>1288166.105</v>
       </c>
       <c r="G42">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H42">
         <v>1289546.592</v>
@@ -22733,6 +22769,12 @@
       </c>
       <c r="E44">
         <v>10</v>
+      </c>
+      <c r="F44">
+        <v>1276689.146</v>
+      </c>
+      <c r="G44">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -22925,7 +22967,7 @@
         <v>1303711.475</v>
       </c>
       <c r="G5">
-        <v>22.5</v>
+        <v>23</v>
       </c>
       <c r="H5">
         <v>1303711.475</v>
@@ -23002,7 +23044,7 @@
         <v>1303711.475</v>
       </c>
       <c r="G6">
-        <v>22.5</v>
+        <v>23</v>
       </c>
       <c r="H6">
         <v>1303711.475</v>
@@ -23079,7 +23121,7 @@
         <v>1303711.475</v>
       </c>
       <c r="G7">
-        <v>22.5</v>
+        <v>23</v>
       </c>
       <c r="H7">
         <v>1303711.475</v>
@@ -23156,7 +23198,7 @@
         <v>1303711.475</v>
       </c>
       <c r="G8">
-        <v>22.5</v>
+        <v>23</v>
       </c>
       <c r="H8">
         <v>1303668.458</v>
@@ -23233,7 +23275,7 @@
         <v>1303711.475</v>
       </c>
       <c r="G9">
-        <v>22.5</v>
+        <v>23</v>
       </c>
       <c r="H9">
         <v>1303711.475</v>
@@ -23310,7 +23352,7 @@
         <v>1303711.475</v>
       </c>
       <c r="G10">
-        <v>22.5</v>
+        <v>23</v>
       </c>
       <c r="H10">
         <v>1303711.475</v>
@@ -23387,7 +23429,7 @@
         <v>1303711.475</v>
       </c>
       <c r="G11">
-        <v>22.5</v>
+        <v>23</v>
       </c>
       <c r="H11">
         <v>1303711.475</v>
@@ -23464,7 +23506,7 @@
         <v>1303711.475</v>
       </c>
       <c r="G12">
-        <v>22.5</v>
+        <v>23</v>
       </c>
       <c r="H12">
         <v>1303711.475</v>
@@ -23541,7 +23583,7 @@
         <v>1303711.475</v>
       </c>
       <c r="G13">
-        <v>22.5</v>
+        <v>23</v>
       </c>
       <c r="H13">
         <v>1303711.475</v>
@@ -23606,7 +23648,7 @@
         <v>1303711.475</v>
       </c>
       <c r="G14">
-        <v>22.5</v>
+        <v>23</v>
       </c>
       <c r="H14">
         <v>1303711.475</v>
@@ -23683,7 +23725,7 @@
         <v>1303711.475</v>
       </c>
       <c r="G15">
-        <v>22.5</v>
+        <v>23</v>
       </c>
       <c r="H15">
         <v>1303711.475</v>
@@ -23837,7 +23879,7 @@
         <v>1303711.475</v>
       </c>
       <c r="G17">
-        <v>22.5</v>
+        <v>23</v>
       </c>
       <c r="H17">
         <v>1303711.475</v>
@@ -24068,7 +24110,7 @@
         <v>1303711.475</v>
       </c>
       <c r="G20">
-        <v>22.5</v>
+        <v>23</v>
       </c>
       <c r="H20">
         <v>1303711.475</v>
@@ -24145,7 +24187,7 @@
         <v>1303711.475</v>
       </c>
       <c r="G21">
-        <v>22.5</v>
+        <v>23</v>
       </c>
       <c r="H21">
         <v>1303690.085</v>
@@ -24222,7 +24264,7 @@
         <v>1303711.475</v>
       </c>
       <c r="G22">
-        <v>22.5</v>
+        <v>23</v>
       </c>
       <c r="H22">
         <v>1303711.475</v>
@@ -24299,7 +24341,7 @@
         <v>1303711.475</v>
       </c>
       <c r="G23">
-        <v>22.5</v>
+        <v>23</v>
       </c>
       <c r="H23">
         <v>1303711.475</v>
@@ -24376,7 +24418,7 @@
         <v>1303711.475</v>
       </c>
       <c r="G24">
-        <v>22.5</v>
+        <v>23</v>
       </c>
       <c r="H24">
         <v>1303711.475</v>
@@ -24453,7 +24495,7 @@
         <v>1303711.475</v>
       </c>
       <c r="G25">
-        <v>22.5</v>
+        <v>23</v>
       </c>
       <c r="H25">
         <v>1303711.475</v>
@@ -24530,7 +24572,7 @@
         <v>1303711.475</v>
       </c>
       <c r="G26">
-        <v>22.5</v>
+        <v>23</v>
       </c>
       <c r="H26">
         <v>1303711.475</v>
@@ -24607,7 +24649,7 @@
         <v>1303711.475</v>
       </c>
       <c r="G27">
-        <v>22.5</v>
+        <v>23</v>
       </c>
       <c r="H27">
         <v>1303711.475</v>
@@ -24684,7 +24726,7 @@
         <v>1303711.475</v>
       </c>
       <c r="G28">
-        <v>22.5</v>
+        <v>23</v>
       </c>
       <c r="H28">
         <v>1303711.475</v>
@@ -24761,7 +24803,7 @@
         <v>1303711.475</v>
       </c>
       <c r="G29">
-        <v>22.5</v>
+        <v>23</v>
       </c>
       <c r="H29">
         <v>1303711.475</v>
@@ -24838,7 +24880,7 @@
         <v>1303711.475</v>
       </c>
       <c r="G30">
-        <v>22.5</v>
+        <v>23</v>
       </c>
       <c r="H30">
         <v>1303711.475</v>
@@ -25069,7 +25111,7 @@
         <v>1303711.475</v>
       </c>
       <c r="G33">
-        <v>22.5</v>
+        <v>23</v>
       </c>
       <c r="H33">
         <v>1303711.475</v>
@@ -25146,7 +25188,7 @@
         <v>1303711.475</v>
       </c>
       <c r="G34">
-        <v>22.5</v>
+        <v>23</v>
       </c>
       <c r="H34">
         <v>1303711.475</v>
@@ -25223,7 +25265,7 @@
         <v>1303711.475</v>
       </c>
       <c r="G35">
-        <v>22.5</v>
+        <v>23</v>
       </c>
       <c r="H35">
         <v>1303711.475</v>
@@ -25300,7 +25342,7 @@
         <v>1303711.475</v>
       </c>
       <c r="G36">
-        <v>22.5</v>
+        <v>23</v>
       </c>
       <c r="H36">
         <v>1303711.475</v>
@@ -25377,7 +25419,7 @@
         <v>1303711.475</v>
       </c>
       <c r="G37">
-        <v>22.5</v>
+        <v>23</v>
       </c>
       <c r="H37">
         <v>1303711.475</v>
@@ -25454,7 +25496,7 @@
         <v>1303711.475</v>
       </c>
       <c r="G38">
-        <v>22.5</v>
+        <v>23</v>
       </c>
       <c r="H38">
         <v>1303711.475</v>
@@ -25531,7 +25573,7 @@
         <v>1303711.475</v>
       </c>
       <c r="G39">
-        <v>22.5</v>
+        <v>23</v>
       </c>
       <c r="H39">
         <v>1303711.475</v>
@@ -25608,7 +25650,7 @@
         <v>1303711.475</v>
       </c>
       <c r="G40">
-        <v>22.5</v>
+        <v>23</v>
       </c>
       <c r="H40">
         <v>1303711.475</v>
@@ -25685,7 +25727,7 @@
         <v>1303711.475</v>
       </c>
       <c r="G41">
-        <v>22.5</v>
+        <v>23</v>
       </c>
       <c r="H41">
         <v>1303711.475</v>
@@ -25762,7 +25804,7 @@
         <v>1303711.475</v>
       </c>
       <c r="G42">
-        <v>22.5</v>
+        <v>23</v>
       </c>
       <c r="H42">
         <v>1303711.475</v>
@@ -25839,7 +25881,7 @@
         <v>1303711.475</v>
       </c>
       <c r="G43">
-        <v>22.5</v>
+        <v>23</v>
       </c>
       <c r="H43">
         <v>1303711.475</v>
@@ -25911,6 +25953,12 @@
       </c>
       <c r="E44">
         <v>21.5</v>
+      </c>
+      <c r="F44">
+        <v>1303711.475</v>
+      </c>
+      <c r="G44">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -26103,7 +26151,7 @@
         <v>704945.359</v>
       </c>
       <c r="G5">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H5">
         <v>670846.346</v>
@@ -26180,7 +26228,7 @@
         <v>664350.108</v>
       </c>
       <c r="G6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H6">
         <v>622450.045</v>
@@ -26257,7 +26305,7 @@
         <v>693543.236</v>
       </c>
       <c r="G7">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H7">
         <v>645522.625</v>
@@ -26334,7 +26382,7 @@
         <v>696066.952</v>
       </c>
       <c r="G8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H8">
         <v>684269.14</v>
@@ -26411,7 +26459,7 @@
         <v>641397.071</v>
       </c>
       <c r="G9">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H9">
         <v>595592.782</v>
@@ -26488,7 +26536,7 @@
         <v>573310.459</v>
       </c>
       <c r="G10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H10">
         <v>521096.572</v>
@@ -26565,7 +26613,7 @@
         <v>580263.71</v>
       </c>
       <c r="G11">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H11">
         <v>671685.07</v>
@@ -26642,7 +26690,7 @@
         <v>764359.083</v>
       </c>
       <c r="G12">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H12">
         <v>811586.052</v>
@@ -26719,7 +26767,7 @@
         <v>715008.98</v>
       </c>
       <c r="G13">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H13">
         <v>628526.083</v>
@@ -26784,7 +26832,7 @@
         <v>800635.214</v>
       </c>
       <c r="G14">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H14">
         <v>800409.934</v>
@@ -26861,7 +26909,7 @@
         <v>768110.662</v>
       </c>
       <c r="G15">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H15">
         <v>672095.479</v>
@@ -26938,7 +26986,7 @@
         <v>600064.778</v>
       </c>
       <c r="G16">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H16">
         <v>599800.89</v>
@@ -27015,7 +27063,7 @@
         <v>589032.805</v>
       </c>
       <c r="G17">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H17">
         <v>594376.324</v>
@@ -27092,7 +27140,7 @@
         <v>653900.083</v>
       </c>
       <c r="G18">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H18">
         <v>661411.051</v>
@@ -27169,7 +27217,7 @@
         <v>611639.012</v>
       </c>
       <c r="G19">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H19">
         <v>574407.797</v>
@@ -27246,7 +27294,7 @@
         <v>565309.861</v>
       </c>
       <c r="G20">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20">
         <v>520881.14</v>
@@ -27323,7 +27371,7 @@
         <v>610671.071</v>
       </c>
       <c r="G21">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H21">
         <v>633375.353</v>
@@ -27400,7 +27448,7 @@
         <v>613760.447</v>
       </c>
       <c r="G22">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H22">
         <v>646821.267</v>
@@ -27477,7 +27525,7 @@
         <v>702446.986</v>
       </c>
       <c r="G23">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H23">
         <v>632355.762</v>
@@ -27554,7 +27602,7 @@
         <v>618310.281</v>
       </c>
       <c r="G24">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H24">
         <v>582649.263</v>
@@ -27631,7 +27679,7 @@
         <v>507691.854</v>
       </c>
       <c r="G25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H25">
         <v>535316.88</v>
@@ -27708,7 +27756,7 @@
         <v>523932.186</v>
       </c>
       <c r="G26">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H26">
         <v>592344.992</v>
@@ -27785,7 +27833,7 @@
         <v>725609.892</v>
       </c>
       <c r="G27">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H27">
         <v>712412.994</v>
@@ -27862,7 +27910,7 @@
         <v>645217.778</v>
       </c>
       <c r="G28">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H28">
         <v>581311.143</v>
@@ -27939,7 +27987,7 @@
         <v>521742.746</v>
       </c>
       <c r="G29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H29">
         <v>495358.138</v>
@@ -28016,7 +28064,7 @@
         <v>582101.288</v>
       </c>
       <c r="G30">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H30">
         <v>467120.416</v>
@@ -28093,7 +28141,7 @@
         <v>586155.822</v>
       </c>
       <c r="G31">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H31">
         <v>542729.801</v>
@@ -28170,7 +28218,7 @@
         <v>555556.903</v>
       </c>
       <c r="G32">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H32">
         <v>507232.226</v>
@@ -28247,7 +28295,7 @@
         <v>529682.739</v>
       </c>
       <c r="G33">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H33">
         <v>568992.535</v>
@@ -28324,7 +28372,7 @@
         <v>574842.331</v>
       </c>
       <c r="G34">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H34">
         <v>612607.37</v>
@@ -28401,7 +28449,7 @@
         <v>583139.272</v>
       </c>
       <c r="G35">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H35">
         <v>585794.841</v>
@@ -28478,7 +28526,7 @@
         <v>593327.562</v>
       </c>
       <c r="G36">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H36">
         <v>543377.302</v>
@@ -28555,7 +28603,7 @@
         <v>561779.678</v>
       </c>
       <c r="G37">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H37">
         <v>555496.165</v>
@@ -28632,7 +28680,7 @@
         <v>522767.298</v>
       </c>
       <c r="G38">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H38">
         <v>583702.517</v>
@@ -28709,7 +28757,7 @@
         <v>562861.152</v>
       </c>
       <c r="G39">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H39">
         <v>620099.12</v>
@@ -28786,7 +28834,7 @@
         <v>506505.996</v>
       </c>
       <c r="G40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H40">
         <v>552267.096</v>
@@ -28863,7 +28911,7 @@
         <v>518189.557</v>
       </c>
       <c r="G41">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H41">
         <v>520352.804</v>
@@ -28940,7 +28988,7 @@
         <v>435156.583</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H42">
         <v>483949.254</v>
@@ -29017,7 +29065,7 @@
         <v>550602.649</v>
       </c>
       <c r="G43">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H43">
         <v>609624.37</v>
@@ -29088,6 +29136,12 @@
         <v>371550.22</v>
       </c>
       <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>409098.374</v>
+      </c>
+      <c r="G44">
         <v>1</v>
       </c>
     </row>
@@ -29281,7 +29335,7 @@
         <v>1036964.901</v>
       </c>
       <c r="G5">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H5">
         <v>958927.937</v>
@@ -29358,7 +29412,7 @@
         <v>948085.65</v>
       </c>
       <c r="G6">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H6">
         <v>880688.901</v>
@@ -29435,7 +29489,7 @@
         <v>942886.555</v>
       </c>
       <c r="G7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H7">
         <v>904614.352</v>
@@ -29512,7 +29566,7 @@
         <v>1018395.266</v>
       </c>
       <c r="G8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H8">
         <v>1009477.805</v>
@@ -29589,7 +29643,7 @@
         <v>953258.656</v>
       </c>
       <c r="G9">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H9">
         <v>839742.776</v>
@@ -29666,7 +29720,7 @@
         <v>790589.426</v>
       </c>
       <c r="G10">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H10">
         <v>717948.311</v>
@@ -29743,7 +29797,7 @@
         <v>872985.673</v>
       </c>
       <c r="G11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H11">
         <v>977487.755</v>
@@ -29820,7 +29874,7 @@
         <v>1010596.456</v>
       </c>
       <c r="G12">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H12">
         <v>1060325.904</v>
@@ -29897,7 +29951,7 @@
         <v>980249.462</v>
       </c>
       <c r="G13">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H13">
         <v>851108.339</v>
@@ -29962,7 +30016,7 @@
         <v>1082179.764</v>
       </c>
       <c r="G14">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H14">
         <v>1058924.344</v>
@@ -30039,7 +30093,7 @@
         <v>1044157.019</v>
       </c>
       <c r="G15">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H15">
         <v>884940.884</v>
@@ -30116,7 +30170,7 @@
         <v>881741.359</v>
       </c>
       <c r="G16">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H16">
         <v>867750.231</v>
@@ -30193,7 +30247,7 @@
         <v>843301.738</v>
       </c>
       <c r="G17">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H17">
         <v>813158.958</v>
@@ -30270,7 +30324,7 @@
         <v>864785.352</v>
       </c>
       <c r="G18">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H18">
         <v>879710.995</v>
@@ -30347,7 +30401,7 @@
         <v>803708.673</v>
       </c>
       <c r="G19">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H19">
         <v>741577.122</v>
@@ -30424,7 +30478,7 @@
         <v>740923.525</v>
       </c>
       <c r="G20">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H20">
         <v>693923.363</v>
@@ -30501,7 +30555,7 @@
         <v>767533.504</v>
       </c>
       <c r="G21">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H21">
         <v>813411.819</v>
@@ -30578,7 +30632,7 @@
         <v>892427.862</v>
       </c>
       <c r="G22">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H22">
         <v>909078.67</v>
@@ -30655,7 +30709,7 @@
         <v>968089.453</v>
       </c>
       <c r="G23">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H23">
         <v>905683.963</v>
@@ -30732,7 +30786,7 @@
         <v>855346.827</v>
       </c>
       <c r="G24">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H24">
         <v>822818.946</v>
@@ -30809,7 +30863,7 @@
         <v>665310.356</v>
       </c>
       <c r="G25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H25">
         <v>704325.338</v>
@@ -30886,7 +30940,7 @@
         <v>702578.476</v>
       </c>
       <c r="G26">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H26">
         <v>787923.325</v>
@@ -30963,7 +31017,7 @@
         <v>907282.8</v>
       </c>
       <c r="G27">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H27">
         <v>903030.126</v>
@@ -31040,7 +31094,7 @@
         <v>836959.676</v>
       </c>
       <c r="G28">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H28">
         <v>755638.769</v>
@@ -31117,7 +31171,7 @@
         <v>741135.442</v>
       </c>
       <c r="G29">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H29">
         <v>726164.151</v>
@@ -31194,7 +31248,7 @@
         <v>824356.89</v>
       </c>
       <c r="G30">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H30">
         <v>651984.727</v>
@@ -31271,7 +31325,7 @@
         <v>785004.567</v>
       </c>
       <c r="G31">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H31">
         <v>735466.359</v>
@@ -31348,7 +31402,7 @@
         <v>731304.146</v>
       </c>
       <c r="G32">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H32">
         <v>678936.905</v>
@@ -31425,7 +31479,7 @@
         <v>704537.66</v>
       </c>
       <c r="G33">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H33">
         <v>760470.996</v>
@@ -31502,7 +31556,7 @@
         <v>724669.918</v>
       </c>
       <c r="G34">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H34">
         <v>771167.377</v>
@@ -31579,7 +31633,7 @@
         <v>753469.218</v>
       </c>
       <c r="G35">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H35">
         <v>740066.771</v>
@@ -31656,7 +31710,7 @@
         <v>759193.927</v>
       </c>
       <c r="G36">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H36">
         <v>737014.893</v>
@@ -31733,7 +31787,7 @@
         <v>747302.768</v>
       </c>
       <c r="G37">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H37">
         <v>713996.22</v>
@@ -31810,7 +31864,7 @@
         <v>686603.049</v>
       </c>
       <c r="G38">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H38">
         <v>753601.714</v>
@@ -31887,7 +31941,7 @@
         <v>731137.742</v>
       </c>
       <c r="G39">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H39">
         <v>786715.73</v>
@@ -31964,7 +32018,7 @@
         <v>670543.86</v>
       </c>
       <c r="G40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H40">
         <v>717491.645</v>
@@ -32041,7 +32095,7 @@
         <v>676481.444</v>
       </c>
       <c r="G41">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H41">
         <v>688619.011</v>
@@ -32118,7 +32172,7 @@
         <v>616055.469</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H42">
         <v>654174.38</v>
@@ -32195,7 +32249,7 @@
         <v>716642.637</v>
       </c>
       <c r="G43">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H43">
         <v>766025.738</v>
@@ -32266,6 +32320,12 @@
         <v>523878.901</v>
       </c>
       <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>575175.386</v>
+      </c>
+      <c r="G44">
         <v>1</v>
       </c>
     </row>
@@ -32536,7 +32596,7 @@
         <v>1176886.423</v>
       </c>
       <c r="G6">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H6">
         <v>1136317.879</v>
@@ -32690,7 +32750,7 @@
         <v>1179977.776</v>
       </c>
       <c r="G8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H8">
         <v>1160227.846</v>
@@ -32844,7 +32904,7 @@
         <v>1180204.385</v>
       </c>
       <c r="G10">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H10">
         <v>1140473.377</v>
@@ -32921,7 +32981,7 @@
         <v>1189722.88</v>
       </c>
       <c r="G11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H11">
         <v>1163835.275</v>
@@ -32998,7 +33058,7 @@
         <v>1171000.577</v>
       </c>
       <c r="G12">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H12">
         <v>1131705.951</v>
@@ -33075,7 +33135,7 @@
         <v>1190974.45</v>
       </c>
       <c r="G13">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H13">
         <v>1134956.812</v>
@@ -33140,7 +33200,7 @@
         <v>1182594.391</v>
       </c>
       <c r="G14">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H14">
         <v>1127975.991</v>
@@ -33217,7 +33277,7 @@
         <v>1184732.013</v>
       </c>
       <c r="G15">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H15">
         <v>1165429.437</v>
@@ -33371,7 +33431,7 @@
         <v>1173114.285</v>
       </c>
       <c r="G17">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H17">
         <v>1163697.214</v>
@@ -33448,7 +33508,7 @@
         <v>1197638.964</v>
       </c>
       <c r="G18">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H18">
         <v>1182842.442</v>
@@ -33525,7 +33585,7 @@
         <v>1185763.201</v>
       </c>
       <c r="G19">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H19">
         <v>1173117.042</v>
@@ -33602,7 +33662,7 @@
         <v>1192440.06</v>
       </c>
       <c r="G20">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H20">
         <v>1163043.785</v>
@@ -33756,7 +33816,7 @@
         <v>1172269.877</v>
       </c>
       <c r="G22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H22">
         <v>1141401.062</v>
@@ -33833,7 +33893,7 @@
         <v>1176363.675</v>
       </c>
       <c r="G23">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H23">
         <v>1153335.958</v>
@@ -34141,7 +34201,7 @@
         <v>1169144.748</v>
       </c>
       <c r="G27">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H27">
         <v>1127913.504</v>
@@ -34218,7 +34278,7 @@
         <v>1178694.086</v>
       </c>
       <c r="G28">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H28">
         <v>1120552.484</v>
@@ -34295,7 +34355,7 @@
         <v>1179120.343</v>
       </c>
       <c r="G29">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H29">
         <v>1138169.38</v>
@@ -34680,7 +34740,7 @@
         <v>1183146.344</v>
       </c>
       <c r="G34">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H34">
         <v>1143683.33</v>
@@ -34757,7 +34817,7 @@
         <v>1178459.6</v>
       </c>
       <c r="G35">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H35">
         <v>1144589.756</v>
@@ -35065,7 +35125,7 @@
         <v>1175794.127</v>
       </c>
       <c r="G39">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H39">
         <v>1152883.37</v>
@@ -35142,7 +35202,7 @@
         <v>1198254.191</v>
       </c>
       <c r="G40">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H40">
         <v>1166221.769</v>
@@ -35445,6 +35505,12 @@
       </c>
       <c r="E44">
         <v>20</v>
+      </c>
+      <c r="F44">
+        <v>1168112.301</v>
+      </c>
+      <c r="G44">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -35637,7 +35703,7 @@
         <v>1299583.477</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H5">
         <v>1137194.68</v>
@@ -35714,7 +35780,7 @@
         <v>1284177.396</v>
       </c>
       <c r="G6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6">
         <v>1221357.854</v>
@@ -35868,7 +35934,7 @@
         <v>1487905.095</v>
       </c>
       <c r="G8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H8">
         <v>1345921.021</v>
@@ -35945,7 +36011,7 @@
         <v>1720993.826</v>
       </c>
       <c r="G9">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H9">
         <v>1631572.738</v>
@@ -36022,7 +36088,7 @@
         <v>1658777.572</v>
       </c>
       <c r="G10">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H10">
         <v>1537293.132</v>
@@ -36099,7 +36165,7 @@
         <v>1564700.427</v>
       </c>
       <c r="G11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H11">
         <v>1364952.596</v>
@@ -36176,7 +36242,7 @@
         <v>1351280.259</v>
       </c>
       <c r="G12">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H12">
         <v>1199855.43</v>
@@ -36253,7 +36319,7 @@
         <v>1324398.985</v>
       </c>
       <c r="G13">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H13">
         <v>1351056.455</v>
@@ -36318,7 +36384,7 @@
         <v>1312939.795</v>
       </c>
       <c r="G14">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H14">
         <v>1175041.547</v>
@@ -36395,7 +36461,7 @@
         <v>1476706.252</v>
       </c>
       <c r="G15">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H15">
         <v>1350062.696</v>
@@ -36472,7 +36538,7 @@
         <v>1651612.012</v>
       </c>
       <c r="G16">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H16">
         <v>1474116.2</v>
@@ -36549,7 +36615,7 @@
         <v>1531833.75</v>
       </c>
       <c r="G17">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H17">
         <v>1446141.75</v>
@@ -36626,7 +36692,7 @@
         <v>1523032.045</v>
       </c>
       <c r="G18">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H18">
         <v>1308045.528</v>
@@ -36703,7 +36769,7 @@
         <v>1765671.942</v>
       </c>
       <c r="G19">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H19">
         <v>1644829.842</v>
@@ -36780,7 +36846,7 @@
         <v>1554972.985</v>
       </c>
       <c r="G20">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H20">
         <v>1402416.558</v>
@@ -36857,7 +36923,7 @@
         <v>1457100.843</v>
       </c>
       <c r="G21">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H21">
         <v>1293033.438</v>
@@ -36934,7 +37000,7 @@
         <v>1270649.384</v>
       </c>
       <c r="G22">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H22">
         <v>1134315.132</v>
@@ -37011,7 +37077,7 @@
         <v>1399927.954</v>
       </c>
       <c r="G23">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H23">
         <v>1200823.195</v>
@@ -37088,7 +37154,7 @@
         <v>1266157.386</v>
       </c>
       <c r="G24">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H24">
         <v>1201501.224</v>
@@ -37242,7 +37308,7 @@
         <v>1370232.956</v>
       </c>
       <c r="G26">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H26">
         <v>1177901.814</v>
@@ -37396,7 +37462,7 @@
         <v>1309453.354</v>
       </c>
       <c r="G28">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H28">
         <v>1179201.635</v>
@@ -37473,7 +37539,7 @@
         <v>1314914.494</v>
       </c>
       <c r="G29">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H29">
         <v>1211124.218</v>
@@ -37858,7 +37924,7 @@
         <v>1515616.759</v>
       </c>
       <c r="G34">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H34">
         <v>1298222.907</v>
@@ -37935,7 +38001,7 @@
         <v>1401071.595</v>
       </c>
       <c r="G35">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H35">
         <v>1300111.584</v>
@@ -38166,7 +38232,7 @@
         <v>1474412.656</v>
       </c>
       <c r="G38">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H38">
         <v>1250628.591</v>
@@ -38320,7 +38386,7 @@
         <v>1451836.781</v>
       </c>
       <c r="G40">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H40">
         <v>1358578.724</v>
@@ -38397,7 +38463,7 @@
         <v>1470955.118</v>
       </c>
       <c r="G41">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H41">
         <v>1380998.799</v>
@@ -38474,7 +38540,7 @@
         <v>1379523.529</v>
       </c>
       <c r="G42">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H42">
         <v>1229290.2</v>
@@ -38551,7 +38617,7 @@
         <v>1290595.371</v>
       </c>
       <c r="G43">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H43">
         <v>1292132.128</v>
@@ -38623,6 +38689,12 @@
       </c>
       <c r="E44">
         <v>26</v>
+      </c>
+      <c r="F44">
+        <v>1263552.104</v>
+      </c>
+      <c r="G44">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -38815,7 +38887,7 @@
         <v>1231642.667</v>
       </c>
       <c r="G5">
-        <v>29.5</v>
+        <v>30</v>
       </c>
       <c r="H5">
         <v>1231642.667</v>
@@ -38892,7 +38964,7 @@
         <v>1231642.667</v>
       </c>
       <c r="G6">
-        <v>29.5</v>
+        <v>30</v>
       </c>
       <c r="H6">
         <v>1231605.014</v>
@@ -39046,7 +39118,7 @@
         <v>1231642.667</v>
       </c>
       <c r="G8">
-        <v>29.5</v>
+        <v>30</v>
       </c>
       <c r="H8">
         <v>1231602.012</v>
@@ -39277,7 +39349,7 @@
         <v>1231642.667</v>
       </c>
       <c r="G11">
-        <v>29.5</v>
+        <v>30</v>
       </c>
       <c r="H11">
         <v>1231642.667</v>
@@ -39496,7 +39568,7 @@
         <v>1231642.667</v>
       </c>
       <c r="G14">
-        <v>29.5</v>
+        <v>30</v>
       </c>
       <c r="H14">
         <v>1227646.109</v>
@@ -39573,7 +39645,7 @@
         <v>1231642.667</v>
       </c>
       <c r="G15">
-        <v>29.5</v>
+        <v>30</v>
       </c>
       <c r="H15">
         <v>1231623.447</v>
@@ -40035,7 +40107,7 @@
         <v>1231642.667</v>
       </c>
       <c r="G21">
-        <v>29.5</v>
+        <v>30</v>
       </c>
       <c r="H21">
         <v>1230946.354</v>
@@ -40112,7 +40184,7 @@
         <v>1231642.667</v>
       </c>
       <c r="G22">
-        <v>29.5</v>
+        <v>30</v>
       </c>
       <c r="H22">
         <v>1231642.667</v>
@@ -40189,7 +40261,7 @@
         <v>1231642.667</v>
       </c>
       <c r="G23">
-        <v>29.5</v>
+        <v>30</v>
       </c>
       <c r="H23">
         <v>1231642.667</v>
@@ -40266,7 +40338,7 @@
         <v>1231642.667</v>
       </c>
       <c r="G24">
-        <v>29.5</v>
+        <v>30</v>
       </c>
       <c r="H24">
         <v>1231563.209</v>
@@ -40574,7 +40646,7 @@
         <v>1231642.667</v>
       </c>
       <c r="G28">
-        <v>29.5</v>
+        <v>30</v>
       </c>
       <c r="H28">
         <v>1231642.667</v>
@@ -40959,7 +41031,7 @@
         <v>1231642.667</v>
       </c>
       <c r="G33">
-        <v>29.5</v>
+        <v>30</v>
       </c>
       <c r="H33">
         <v>1231603.138</v>
@@ -41036,7 +41108,7 @@
         <v>1231642.667</v>
       </c>
       <c r="G34">
-        <v>29.5</v>
+        <v>30</v>
       </c>
       <c r="H34">
         <v>1231642.667</v>
@@ -41113,7 +41185,7 @@
         <v>1231642.667</v>
       </c>
       <c r="G35">
-        <v>29.5</v>
+        <v>30</v>
       </c>
       <c r="H35">
         <v>1231642.667</v>
@@ -41344,7 +41416,7 @@
         <v>1231642.667</v>
       </c>
       <c r="G38">
-        <v>29.5</v>
+        <v>30</v>
       </c>
       <c r="H38">
         <v>1230592.214</v>
@@ -41421,7 +41493,7 @@
         <v>1231642.667</v>
       </c>
       <c r="G39">
-        <v>29.5</v>
+        <v>30</v>
       </c>
       <c r="H39">
         <v>1231642.667</v>
@@ -41498,7 +41570,7 @@
         <v>1231642.667</v>
       </c>
       <c r="G40">
-        <v>29.5</v>
+        <v>30</v>
       </c>
       <c r="H40">
         <v>1231642.667</v>
@@ -41575,7 +41647,7 @@
         <v>1231642.667</v>
       </c>
       <c r="G41">
-        <v>29.5</v>
+        <v>30</v>
       </c>
       <c r="H41">
         <v>1231623.28</v>
@@ -41652,7 +41724,7 @@
         <v>1231642.667</v>
       </c>
       <c r="G42">
-        <v>29.5</v>
+        <v>30</v>
       </c>
       <c r="H42">
         <v>1231642.667</v>
@@ -41729,7 +41801,7 @@
         <v>1231642.667</v>
       </c>
       <c r="G43">
-        <v>29.5</v>
+        <v>30</v>
       </c>
       <c r="H43">
         <v>1231642.667</v>
@@ -41801,6 +41873,12 @@
       </c>
       <c r="E44">
         <v>22</v>
+      </c>
+      <c r="F44">
+        <v>1231642.667</v>
+      </c>
+      <c r="G44">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -41993,7 +42071,7 @@
         <v>882534.436</v>
       </c>
       <c r="G5">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H5">
         <v>898511.15</v>
@@ -42070,7 +42148,7 @@
         <v>886446.36</v>
       </c>
       <c r="G6">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H6">
         <v>875987.054</v>
@@ -42147,7 +42225,7 @@
         <v>887060.185</v>
       </c>
       <c r="G7">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H7">
         <v>887461.157</v>
@@ -42224,7 +42302,7 @@
         <v>893521.187</v>
       </c>
       <c r="G8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H8">
         <v>888750.072</v>
@@ -42301,7 +42379,7 @@
         <v>878910.619</v>
       </c>
       <c r="G9">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H9">
         <v>883445.621</v>
@@ -42455,7 +42533,7 @@
         <v>868310.837</v>
       </c>
       <c r="G11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H11">
         <v>884680.561</v>
@@ -42609,7 +42687,7 @@
         <v>880555.49</v>
       </c>
       <c r="G13">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H13">
         <v>881899.609</v>
@@ -42674,7 +42752,7 @@
         <v>883259.731</v>
       </c>
       <c r="G14">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H14">
         <v>897767.641</v>
@@ -42751,7 +42829,7 @@
         <v>876061.835</v>
       </c>
       <c r="G15">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H15">
         <v>867434.093</v>
@@ -42828,7 +42906,7 @@
         <v>867184.884</v>
       </c>
       <c r="G16">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H16">
         <v>821484.677</v>
@@ -42905,7 +42983,7 @@
         <v>887909.836</v>
       </c>
       <c r="G17">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H17">
         <v>845168.545</v>
@@ -42982,7 +43060,7 @@
         <v>866604.285</v>
       </c>
       <c r="G18">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H18">
         <v>892091.337</v>
@@ -43059,7 +43137,7 @@
         <v>869379.582</v>
       </c>
       <c r="G19">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H19">
         <v>858083.375</v>
@@ -43136,7 +43214,7 @@
         <v>885085.959</v>
       </c>
       <c r="G20">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H20">
         <v>876794.462</v>
@@ -43444,7 +43522,7 @@
         <v>883207.497</v>
       </c>
       <c r="G24">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H24">
         <v>877917.965</v>
@@ -43521,7 +43599,7 @@
         <v>889221.79</v>
       </c>
       <c r="G25">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H25">
         <v>879859.778</v>
@@ -43675,7 +43753,7 @@
         <v>875496.129</v>
       </c>
       <c r="G27">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H27">
         <v>884068.521</v>
@@ -43752,7 +43830,7 @@
         <v>883294.705</v>
       </c>
       <c r="G28">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H28">
         <v>869620.056</v>
@@ -43829,7 +43907,7 @@
         <v>881827.867</v>
       </c>
       <c r="G29">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H29">
         <v>880690.48</v>
@@ -43906,7 +43984,7 @@
         <v>883838.845</v>
       </c>
       <c r="G30">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H30">
         <v>888334.81</v>
@@ -43983,7 +44061,7 @@
         <v>883601.338</v>
       </c>
       <c r="G31">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H31">
         <v>884197.675</v>
@@ -44214,7 +44292,7 @@
         <v>869707.137</v>
       </c>
       <c r="G34">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H34">
         <v>821276.761</v>
@@ -44291,7 +44369,7 @@
         <v>866762.641</v>
       </c>
       <c r="G35">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H35">
         <v>842768.63</v>
@@ -44599,7 +44677,7 @@
         <v>887453.917</v>
       </c>
       <c r="G39">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H39">
         <v>843219.464</v>
@@ -44979,6 +45057,12 @@
       </c>
       <c r="E44">
         <v>6</v>
+      </c>
+      <c r="F44">
+        <v>865066.894</v>
+      </c>
+      <c r="G44">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -45171,7 +45255,7 @@
         <v>917992.88</v>
       </c>
       <c r="G5">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H5">
         <v>917992.88</v>
@@ -45248,7 +45332,7 @@
         <v>917992.88</v>
       </c>
       <c r="G6">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H6">
         <v>917992.88</v>
@@ -45325,7 +45409,7 @@
         <v>917992.88</v>
       </c>
       <c r="G7">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H7">
         <v>917992.88</v>
@@ -45402,7 +45486,7 @@
         <v>917992.88</v>
       </c>
       <c r="G8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H8">
         <v>917908.284</v>
@@ -45479,7 +45563,7 @@
         <v>917992.88</v>
       </c>
       <c r="G9">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H9">
         <v>917992.88</v>
@@ -45633,7 +45717,7 @@
         <v>917518.275</v>
       </c>
       <c r="G11">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H11">
         <v>917992.88</v>
@@ -45787,7 +45871,7 @@
         <v>917992.88</v>
       </c>
       <c r="G13">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H13">
         <v>917992.88</v>
@@ -45852,7 +45936,7 @@
         <v>917992.88</v>
       </c>
       <c r="G14">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H14">
         <v>917992.88</v>
@@ -45929,7 +46013,7 @@
         <v>917707.938</v>
       </c>
       <c r="G15">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H15">
         <v>917992.88</v>
@@ -46006,7 +46090,7 @@
         <v>917972.686</v>
       </c>
       <c r="G16">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H16">
         <v>907837.697</v>
@@ -46083,7 +46167,7 @@
         <v>917972.499</v>
       </c>
       <c r="G17">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H17">
         <v>917887.902</v>
@@ -46237,7 +46321,7 @@
         <v>917870.695</v>
       </c>
       <c r="G19">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H19">
         <v>917887.704</v>
@@ -46314,7 +46398,7 @@
         <v>917992.88</v>
       </c>
       <c r="G20">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H20">
         <v>917992.88</v>
@@ -46622,7 +46706,7 @@
         <v>917992.88</v>
       </c>
       <c r="G24">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H24">
         <v>917992.88</v>
@@ -46699,7 +46783,7 @@
         <v>917992.88</v>
       </c>
       <c r="G25">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H25">
         <v>917950.758</v>
@@ -46853,7 +46937,7 @@
         <v>917909.128</v>
       </c>
       <c r="G27">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H27">
         <v>917992.88</v>
@@ -46930,7 +47014,7 @@
         <v>917992.88</v>
       </c>
       <c r="G28">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H28">
         <v>917992.88</v>
@@ -47007,7 +47091,7 @@
         <v>917992.88</v>
       </c>
       <c r="G29">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H29">
         <v>917992.88</v>
@@ -47084,7 +47168,7 @@
         <v>917992.88</v>
       </c>
       <c r="G30">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H30">
         <v>917971.153</v>
@@ -47161,7 +47245,7 @@
         <v>917952.222</v>
       </c>
       <c r="G31">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H31">
         <v>917950.627</v>
@@ -47238,7 +47322,7 @@
         <v>917617.442</v>
       </c>
       <c r="G32">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H32">
         <v>915116.334</v>
@@ -47777,7 +47861,7 @@
         <v>917951.051</v>
       </c>
       <c r="G39">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H39">
         <v>917452.327</v>
@@ -48157,6 +48241,12 @@
       </c>
       <c r="E44">
         <v>4</v>
+      </c>
+      <c r="F44">
+        <v>917344.168</v>
+      </c>
+      <c r="G44">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -48426,7 +48516,7 @@
         <v>852380.28</v>
       </c>
       <c r="G6">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H6">
         <v>851644.137</v>
@@ -48580,7 +48670,7 @@
         <v>854323.302</v>
       </c>
       <c r="G8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H8">
         <v>856062.349</v>
@@ -49030,7 +49120,7 @@
         <v>851411.969</v>
       </c>
       <c r="G14">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H14">
         <v>850629.974</v>
@@ -49338,7 +49428,7 @@
         <v>851460.116</v>
       </c>
       <c r="G18">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H18">
         <v>848183.604</v>
@@ -49569,7 +49659,7 @@
         <v>853096.805</v>
       </c>
       <c r="G21">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H21">
         <v>855925.394</v>
@@ -49646,7 +49736,7 @@
         <v>850270.433</v>
       </c>
       <c r="G22">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H22">
         <v>846680.878</v>
@@ -49723,7 +49813,7 @@
         <v>850237.18</v>
       </c>
       <c r="G23">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H23">
         <v>821337.073</v>
@@ -49800,7 +49890,7 @@
         <v>850209.344</v>
       </c>
       <c r="G24">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H24">
         <v>860068.855</v>
@@ -49877,7 +49967,7 @@
         <v>856393.582</v>
       </c>
       <c r="G25">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H25">
         <v>851971.827</v>
@@ -49954,7 +50044,7 @@
         <v>857611.593</v>
       </c>
       <c r="G26">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H26">
         <v>836542.402</v>
@@ -50108,7 +50198,7 @@
         <v>855958.215</v>
       </c>
       <c r="G28">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H28">
         <v>851866.871</v>
@@ -50262,7 +50352,7 @@
         <v>857233.402</v>
       </c>
       <c r="G30">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H30">
         <v>862943.033</v>
@@ -50570,7 +50660,7 @@
         <v>853475.382</v>
       </c>
       <c r="G34">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H34">
         <v>853539.348</v>
@@ -50647,7 +50737,7 @@
         <v>862876.728</v>
       </c>
       <c r="G35">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H35">
         <v>827423.643</v>
@@ -50724,7 +50814,7 @@
         <v>856702.078</v>
       </c>
       <c r="G36">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H36">
         <v>848784.843</v>
@@ -50955,7 +51045,7 @@
         <v>856720.802</v>
       </c>
       <c r="G39">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H39">
         <v>824814.826</v>
@@ -51335,6 +51425,12 @@
       </c>
       <c r="E44">
         <v>25</v>
+      </c>
+      <c r="F44">
+        <v>850164.908</v>
+      </c>
+      <c r="G44">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -51527,7 +51623,7 @@
         <v>872414.226</v>
       </c>
       <c r="G5">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="H5">
         <v>872414.226</v>
@@ -51604,7 +51700,7 @@
         <v>872414.226</v>
       </c>
       <c r="G6">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="H6">
         <v>872414.226</v>
@@ -51681,7 +51777,7 @@
         <v>872414.226</v>
       </c>
       <c r="G7">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="H7">
         <v>872371.177</v>
@@ -51758,7 +51854,7 @@
         <v>872414.226</v>
       </c>
       <c r="G8">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="H8">
         <v>872414.226</v>
@@ -51835,7 +51931,7 @@
         <v>872414.226</v>
       </c>
       <c r="G9">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="H9">
         <v>872414.226</v>
@@ -51912,7 +52008,7 @@
         <v>872414.226</v>
       </c>
       <c r="G10">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="H10">
         <v>872414.226</v>
@@ -51989,7 +52085,7 @@
         <v>872414.226</v>
       </c>
       <c r="G11">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="H11">
         <v>872414.226</v>
@@ -52066,7 +52162,7 @@
         <v>872414.226</v>
       </c>
       <c r="G12">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="H12">
         <v>872414.226</v>
@@ -52143,7 +52239,7 @@
         <v>872414.226</v>
       </c>
       <c r="G13">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="H13">
         <v>872414.226</v>
@@ -52208,7 +52304,7 @@
         <v>872414.226</v>
       </c>
       <c r="G14">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="H14">
         <v>872414.226</v>
@@ -52439,7 +52535,7 @@
         <v>872414.226</v>
       </c>
       <c r="G17">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="H17">
         <v>872414.226</v>
@@ -52670,7 +52766,7 @@
         <v>872414.226</v>
       </c>
       <c r="G20">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="H20">
         <v>872414.226</v>
@@ -52824,7 +52920,7 @@
         <v>872414.226</v>
       </c>
       <c r="G22">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="H22">
         <v>872414.226</v>
@@ -52901,7 +52997,7 @@
         <v>872414.226</v>
       </c>
       <c r="G23">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="H23">
         <v>872414.226</v>
@@ -52978,7 +53074,7 @@
         <v>872414.226</v>
       </c>
       <c r="G24">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="H24">
         <v>872414.226</v>
@@ -53055,7 +53151,7 @@
         <v>872414.226</v>
       </c>
       <c r="G25">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="H25">
         <v>872414.226</v>
@@ -53132,7 +53228,7 @@
         <v>872414.226</v>
       </c>
       <c r="G26">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="H26">
         <v>872414.226</v>
@@ -53209,7 +53305,7 @@
         <v>872414.226</v>
       </c>
       <c r="G27">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="H27">
         <v>872414.226</v>
@@ -53286,7 +53382,7 @@
         <v>872414.226</v>
       </c>
       <c r="G28">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="H28">
         <v>872414.226</v>
@@ -53363,7 +53459,7 @@
         <v>872414.226</v>
       </c>
       <c r="G29">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="H29">
         <v>872414.226</v>
@@ -53440,7 +53536,7 @@
         <v>872414.226</v>
       </c>
       <c r="G30">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="H30">
         <v>872414.226</v>
@@ -53517,7 +53613,7 @@
         <v>872414.226</v>
       </c>
       <c r="G31">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="H31">
         <v>872392.744</v>
@@ -53671,7 +53767,7 @@
         <v>872414.226</v>
       </c>
       <c r="G33">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="H33">
         <v>869194.694</v>
@@ -53748,7 +53844,7 @@
         <v>872414.226</v>
       </c>
       <c r="G34">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="H34">
         <v>872414.226</v>
@@ -53825,7 +53921,7 @@
         <v>872414.226</v>
       </c>
       <c r="G35">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="H35">
         <v>872414.226</v>
@@ -53902,7 +53998,7 @@
         <v>872414.226</v>
       </c>
       <c r="G36">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="H36">
         <v>872414.226</v>
@@ -53979,7 +54075,7 @@
         <v>872414.226</v>
       </c>
       <c r="G37">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="H37">
         <v>872414.226</v>
@@ -54056,7 +54152,7 @@
         <v>872414.226</v>
       </c>
       <c r="G38">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="H38">
         <v>872414.226</v>
@@ -54133,7 +54229,7 @@
         <v>872414.226</v>
       </c>
       <c r="G39">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="H39">
         <v>872414.226</v>
@@ -54210,7 +54306,7 @@
         <v>872414.226</v>
       </c>
       <c r="G40">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="H40">
         <v>872414.226</v>
@@ -54287,7 +54383,7 @@
         <v>872414.226</v>
       </c>
       <c r="G41">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="H41">
         <v>872414.226</v>
@@ -54364,7 +54460,7 @@
         <v>872414.226</v>
       </c>
       <c r="G42">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="H42">
         <v>872414.226</v>
@@ -54441,7 +54537,7 @@
         <v>872414.226</v>
       </c>
       <c r="G43">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="H43">
         <v>872414.226</v>
@@ -54513,6 +54609,12 @@
       </c>
       <c r="E44">
         <v>22.5</v>
+      </c>
+      <c r="F44">
+        <v>872414.226</v>
+      </c>
+      <c r="G44">
+        <v>23.5</v>
       </c>
     </row>
   </sheetData>
@@ -54705,7 +54807,7 @@
         <v>1246355.579</v>
       </c>
       <c r="G5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H5">
         <v>900015.536</v>
@@ -54782,7 +54884,7 @@
         <v>1089581.002</v>
       </c>
       <c r="G6">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H6">
         <v>949807.226</v>
@@ -54859,7 +54961,7 @@
         <v>954430.735</v>
       </c>
       <c r="G7">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H7">
         <v>591822.368</v>
@@ -54936,7 +55038,7 @@
         <v>984709.714</v>
       </c>
       <c r="G8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H8">
         <v>779453.499</v>
@@ -55013,7 +55115,7 @@
         <v>987840.604</v>
       </c>
       <c r="G9">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H9">
         <v>540701.219</v>
@@ -55167,7 +55269,7 @@
         <v>913445.854</v>
       </c>
       <c r="G11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H11">
         <v>581791.173</v>
@@ -55244,7 +55346,7 @@
         <v>876704.572</v>
       </c>
       <c r="G12">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H12">
         <v>510822.065</v>
@@ -55321,7 +55423,7 @@
         <v>728108.341</v>
       </c>
       <c r="G13">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H13">
         <v>477292.607</v>
@@ -55386,7 +55488,7 @@
         <v>891231.546</v>
       </c>
       <c r="G14">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H14">
         <v>507122.879</v>
@@ -55540,7 +55642,7 @@
         <v>796831.768</v>
       </c>
       <c r="G16">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H16">
         <v>323263.518</v>
@@ -55771,7 +55873,7 @@
         <v>804585.692</v>
       </c>
       <c r="G19">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H19">
         <v>501198.91</v>
@@ -55925,7 +56027,7 @@
         <v>720304.518</v>
       </c>
       <c r="G21">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H21">
         <v>493189.662</v>
@@ -56156,7 +56258,7 @@
         <v>831533.176</v>
       </c>
       <c r="G24">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H24">
         <v>508876.321</v>
@@ -56233,7 +56335,7 @@
         <v>835409.651</v>
       </c>
       <c r="G25">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H25">
         <v>693161.365</v>
@@ -56310,7 +56412,7 @@
         <v>918645.37</v>
       </c>
       <c r="G26">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H26">
         <v>514063.251</v>
@@ -56387,7 +56489,7 @@
         <v>1106278.815</v>
       </c>
       <c r="G27">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H27">
         <v>711677.757</v>
@@ -56464,7 +56566,7 @@
         <v>931765.22</v>
       </c>
       <c r="G28">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H28">
         <v>530953.925</v>
@@ -56541,7 +56643,7 @@
         <v>856861.843</v>
       </c>
       <c r="G29">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H29">
         <v>481908.008</v>
@@ -57080,7 +57182,7 @@
         <v>744094.029</v>
       </c>
       <c r="G36">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H36">
         <v>563988.983</v>
@@ -57234,7 +57336,7 @@
         <v>845476.625</v>
       </c>
       <c r="G38">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H38">
         <v>512866.288</v>
@@ -57542,7 +57644,7 @@
         <v>731329.084</v>
       </c>
       <c r="G42">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H42">
         <v>401056.495</v>
@@ -57691,6 +57793,12 @@
       </c>
       <c r="E44">
         <v>13</v>
+      </c>
+      <c r="F44">
+        <v>714305.932</v>
+      </c>
+      <c r="G44">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -57883,7 +57991,7 @@
         <v>1557040.313</v>
       </c>
       <c r="G5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H5">
         <v>1317552.289</v>
@@ -57960,7 +58068,7 @@
         <v>1427652.922</v>
       </c>
       <c r="G6">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H6">
         <v>1287388.747</v>
@@ -58037,7 +58145,7 @@
         <v>1308708.637</v>
       </c>
       <c r="G7">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H7">
         <v>976907.321</v>
@@ -58114,7 +58222,7 @@
         <v>1296566.504</v>
       </c>
       <c r="G8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H8">
         <v>1062017.22</v>
@@ -58191,7 +58299,7 @@
         <v>1362583.311</v>
       </c>
       <c r="G9">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H9">
         <v>877508.289</v>
@@ -58345,7 +58453,7 @@
         <v>1226691.511</v>
       </c>
       <c r="G11">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H11">
         <v>791869.479</v>
@@ -58422,7 +58530,7 @@
         <v>1233599.669</v>
       </c>
       <c r="G12">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H12">
         <v>807585.641</v>
@@ -58564,7 +58672,7 @@
         <v>1267527.299</v>
       </c>
       <c r="G14">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H14">
         <v>794499.009</v>
@@ -58718,7 +58826,7 @@
         <v>1166566.598</v>
       </c>
       <c r="G16">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H16">
         <v>629003.963</v>
@@ -58949,7 +59057,7 @@
         <v>1168045.321</v>
       </c>
       <c r="G19">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H19">
         <v>812281.864</v>
@@ -59334,7 +59442,7 @@
         <v>1203410.701</v>
       </c>
       <c r="G24">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H24">
         <v>803237.023</v>
@@ -59411,7 +59519,7 @@
         <v>1203888.215</v>
       </c>
       <c r="G25">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H25">
         <v>1044296.082</v>
@@ -59488,7 +59596,7 @@
         <v>1332954.003</v>
       </c>
       <c r="G26">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H26">
         <v>857154.368</v>
@@ -59565,7 +59673,7 @@
         <v>1487966.513</v>
       </c>
       <c r="G27">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H27">
         <v>1010019.441</v>
@@ -59642,7 +59750,7 @@
         <v>1288966.72</v>
       </c>
       <c r="G28">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H28">
         <v>882138.642</v>
@@ -59719,7 +59827,7 @@
         <v>1213960.872</v>
       </c>
       <c r="G29">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H29">
         <v>840951.694</v>
@@ -60412,7 +60520,7 @@
         <v>1191668.973</v>
       </c>
       <c r="G38">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H38">
         <v>824934.852</v>
@@ -60869,6 +60977,12 @@
       </c>
       <c r="E44">
         <v>12</v>
+      </c>
+      <c r="F44">
+        <v>1124447.918</v>
+      </c>
+      <c r="G44">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -61061,7 +61175,7 @@
         <v>102214.907</v>
       </c>
       <c r="G5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H5">
         <v>28868.236</v>
@@ -61138,7 +61252,7 @@
         <v>104213.546</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H6">
         <v>28227.675</v>
@@ -61292,7 +61406,7 @@
         <v>133926.986</v>
       </c>
       <c r="G8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H8">
         <v>36862.733</v>
@@ -61369,7 +61483,7 @@
         <v>88517.974</v>
       </c>
       <c r="G9">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H9">
         <v>33321.584</v>
@@ -61446,7 +61560,7 @@
         <v>133960.997</v>
       </c>
       <c r="G10">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H10">
         <v>42722.289</v>
@@ -61523,7 +61637,7 @@
         <v>157347.171</v>
       </c>
       <c r="G11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H11">
         <v>49373.554</v>
@@ -61600,7 +61714,7 @@
         <v>172654.009</v>
       </c>
       <c r="G12">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H12">
         <v>50780.723</v>
@@ -61677,7 +61791,7 @@
         <v>136440.448</v>
       </c>
       <c r="G13">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H13">
         <v>58170.53</v>
@@ -61742,7 +61856,7 @@
         <v>127588.801</v>
       </c>
       <c r="G14">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H14">
         <v>43120.2</v>
@@ -61819,7 +61933,7 @@
         <v>150700.182</v>
       </c>
       <c r="G15">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H15">
         <v>46352.074</v>
@@ -61896,7 +62010,7 @@
         <v>161021.578</v>
       </c>
       <c r="G16">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H16">
         <v>62929.891</v>
@@ -61973,7 +62087,7 @@
         <v>137345.691</v>
       </c>
       <c r="G17">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H17">
         <v>58484.978</v>
@@ -62050,7 +62164,7 @@
         <v>171878.329</v>
       </c>
       <c r="G18">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H18">
         <v>81692.731</v>
@@ -62127,7 +62241,7 @@
         <v>186549.587</v>
       </c>
       <c r="G19">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H19">
         <v>97938.742</v>
@@ -62204,7 +62318,7 @@
         <v>170449.524</v>
       </c>
       <c r="G20">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H20">
         <v>85459.975</v>
@@ -62281,7 +62395,7 @@
         <v>155735.592</v>
       </c>
       <c r="G21">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H21">
         <v>78297.023</v>
@@ -62358,7 +62472,7 @@
         <v>106826.403</v>
       </c>
       <c r="G22">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H22">
         <v>28098.964</v>
@@ -62435,7 +62549,7 @@
         <v>146249.822</v>
       </c>
       <c r="G23">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H23">
         <v>53297.291</v>
@@ -62512,7 +62626,7 @@
         <v>52988.709</v>
       </c>
       <c r="G24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H24">
         <v>23288.917</v>
@@ -62589,7 +62703,7 @@
         <v>75691.939</v>
       </c>
       <c r="G25">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H25">
         <v>24554.838</v>
@@ -62743,7 +62857,7 @@
         <v>78094.738</v>
       </c>
       <c r="G27">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H27">
         <v>32093.228</v>
@@ -62820,7 +62934,7 @@
         <v>66434.846</v>
       </c>
       <c r="G28">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H28">
         <v>18766.493</v>
@@ -62897,7 +63011,7 @@
         <v>160914.253</v>
       </c>
       <c r="G29">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H29">
         <v>46503.355</v>
@@ -62974,7 +63088,7 @@
         <v>95974.202</v>
       </c>
       <c r="G30">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H30">
         <v>33308.725</v>
@@ -63051,7 +63165,7 @@
         <v>103413.668</v>
       </c>
       <c r="G31">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H31">
         <v>34106.427</v>
@@ -63205,7 +63319,7 @@
         <v>73531.785</v>
       </c>
       <c r="G33">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H33">
         <v>25457.548</v>
@@ -63282,7 +63396,7 @@
         <v>131723.241</v>
       </c>
       <c r="G34">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H34">
         <v>38087.235</v>
@@ -63359,7 +63473,7 @@
         <v>125946.945</v>
       </c>
       <c r="G35">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H35">
         <v>28064.256</v>
@@ -63744,7 +63858,7 @@
         <v>161472.294</v>
       </c>
       <c r="G40">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H40">
         <v>60238.691</v>
@@ -63821,7 +63935,7 @@
         <v>142320.745</v>
       </c>
       <c r="G41">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H41">
         <v>48095.027</v>
@@ -63975,7 +64089,7 @@
         <v>59344.594</v>
       </c>
       <c r="G43">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H43">
         <v>26758.452</v>
@@ -64047,6 +64161,12 @@
       </c>
       <c r="E44">
         <v>15</v>
+      </c>
+      <c r="F44">
+        <v>49274.632</v>
+      </c>
+      <c r="G44">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -64239,7 +64359,7 @@
         <v>198964.698</v>
       </c>
       <c r="G5">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H5">
         <v>69567.644</v>
@@ -64316,7 +64436,7 @@
         <v>201507.825</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H6">
         <v>68161.551</v>
@@ -64470,7 +64590,7 @@
         <v>234511.574</v>
       </c>
       <c r="G8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H8">
         <v>84631.161</v>
@@ -64547,7 +64667,7 @@
         <v>161648.98</v>
       </c>
       <c r="G9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H9">
         <v>77375.331</v>
@@ -64624,7 +64744,7 @@
         <v>219233.627</v>
       </c>
       <c r="G10">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H10">
         <v>97757.624</v>
@@ -64701,7 +64821,7 @@
         <v>254579.881</v>
       </c>
       <c r="G11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H11">
         <v>103266.678</v>
@@ -64778,7 +64898,7 @@
         <v>262913.947</v>
       </c>
       <c r="G12">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H12">
         <v>103700.685</v>
@@ -64855,7 +64975,7 @@
         <v>226764.071</v>
       </c>
       <c r="G13">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H13">
         <v>120165.223</v>
@@ -64920,7 +65040,7 @@
         <v>230334.944</v>
       </c>
       <c r="G14">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H14">
         <v>107686.635</v>
@@ -64997,7 +65117,7 @@
         <v>260030.992</v>
       </c>
       <c r="G15">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H15">
         <v>105732.275</v>
@@ -65074,7 +65194,7 @@
         <v>265450.497</v>
       </c>
       <c r="G16">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H16">
         <v>132521.378</v>
@@ -65151,7 +65271,7 @@
         <v>240115.707</v>
       </c>
       <c r="G17">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H17">
         <v>140954.405</v>
@@ -65228,7 +65348,7 @@
         <v>285349.012</v>
       </c>
       <c r="G18">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H18">
         <v>167137.836</v>
@@ -65305,7 +65425,7 @@
         <v>267284.786</v>
       </c>
       <c r="G19">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H19">
         <v>187865.963</v>
@@ -65382,7 +65502,7 @@
         <v>286027.946</v>
       </c>
       <c r="G20">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H20">
         <v>180062.511</v>
@@ -65459,7 +65579,7 @@
         <v>249838.724</v>
       </c>
       <c r="G21">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H21">
         <v>169875.185</v>
@@ -65536,7 +65656,7 @@
         <v>214724.394</v>
       </c>
       <c r="G22">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H22">
         <v>80655.265</v>
@@ -65613,7 +65733,7 @@
         <v>251058.425</v>
       </c>
       <c r="G23">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H23">
         <v>123968.503</v>
@@ -65690,7 +65810,7 @@
         <v>126884.562</v>
       </c>
       <c r="G24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H24">
         <v>64509.726</v>
@@ -65767,7 +65887,7 @@
         <v>164522.989</v>
       </c>
       <c r="G25">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H25">
         <v>70327.771</v>
@@ -65921,7 +66041,7 @@
         <v>158954.505</v>
       </c>
       <c r="G27">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H27">
         <v>81525.712</v>
@@ -65998,7 +66118,7 @@
         <v>168085.165</v>
       </c>
       <c r="G28">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H28">
         <v>53003.274</v>
@@ -66075,7 +66195,7 @@
         <v>277970.431</v>
       </c>
       <c r="G29">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H29">
         <v>97564.518</v>
@@ -66152,7 +66272,7 @@
         <v>190534.378</v>
       </c>
       <c r="G30">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H30">
         <v>85932.392</v>
@@ -66229,7 +66349,7 @@
         <v>190633.161</v>
       </c>
       <c r="G31">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H31">
         <v>86042.94</v>
@@ -66383,7 +66503,7 @@
         <v>165771.984</v>
       </c>
       <c r="G33">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H33">
         <v>66844.699</v>
@@ -66460,7 +66580,7 @@
         <v>243892.537</v>
       </c>
       <c r="G34">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H34">
         <v>95862.125</v>
@@ -66537,7 +66657,7 @@
         <v>234364.238</v>
       </c>
       <c r="G35">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H35">
         <v>74130.864</v>
@@ -66922,7 +67042,7 @@
         <v>255375.123</v>
       </c>
       <c r="G40">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H40">
         <v>127337.47</v>
@@ -66999,7 +67119,7 @@
         <v>247813.618</v>
       </c>
       <c r="G41">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H41">
         <v>112875.645</v>
@@ -67076,7 +67196,7 @@
         <v>129629.427</v>
       </c>
       <c r="G42">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H42">
         <v>57869.915</v>
@@ -67153,7 +67273,7 @@
         <v>147834.146</v>
       </c>
       <c r="G43">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H43">
         <v>75064.496</v>
@@ -67225,6 +67345,12 @@
       </c>
       <c r="E44">
         <v>17</v>
+      </c>
+      <c r="F44">
+        <v>115677.71</v>
+      </c>
+      <c r="G44">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -67538,7 +67664,7 @@
         <v>1057693.681</v>
       </c>
       <c r="G5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H5">
         <v>1096589.684</v>
@@ -67615,7 +67741,7 @@
         <v>787538.341</v>
       </c>
       <c r="G6">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H6">
         <v>755282.312</v>
@@ -67692,7 +67818,7 @@
         <v>899981.691</v>
       </c>
       <c r="G7">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H7">
         <v>989674.136</v>
@@ -67769,7 +67895,7 @@
         <v>914322.894</v>
       </c>
       <c r="G8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H8">
         <v>922184.503</v>
@@ -67846,7 +67972,7 @@
         <v>586952.105</v>
       </c>
       <c r="G9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H9">
         <v>637891.806</v>
@@ -67923,7 +68049,7 @@
         <v>602575.789</v>
       </c>
       <c r="G10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H10">
         <v>671990.262</v>
@@ -68000,7 +68126,7 @@
         <v>605249.559</v>
       </c>
       <c r="G11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H11">
         <v>804600.758</v>
@@ -68077,7 +68203,7 @@
         <v>696110.232</v>
       </c>
       <c r="G12">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H12">
         <v>750880.355</v>
@@ -68154,7 +68280,7 @@
         <v>841469.14</v>
       </c>
       <c r="G13">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H13">
         <v>944821.276</v>
@@ -68219,7 +68345,7 @@
         <v>756452.482</v>
       </c>
       <c r="G14">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H14">
         <v>814344.793</v>
@@ -68296,7 +68422,7 @@
         <v>659738.91</v>
       </c>
       <c r="G15">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H15">
         <v>569899.342</v>
@@ -68373,7 +68499,7 @@
         <v>629656.164</v>
       </c>
       <c r="G16">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H16">
         <v>491009.452</v>
@@ -68450,7 +68576,7 @@
         <v>630295.256</v>
       </c>
       <c r="G17">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H17">
         <v>580333.859</v>
@@ -68527,7 +68653,7 @@
         <v>469623.744</v>
       </c>
       <c r="G18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H18">
         <v>519107.247</v>
@@ -68604,7 +68730,7 @@
         <v>614110.559</v>
       </c>
       <c r="G19">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H19">
         <v>671310.682</v>
@@ -68681,7 +68807,7 @@
         <v>709335.182</v>
       </c>
       <c r="G20">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H20">
         <v>652951.267</v>
@@ -68758,7 +68884,7 @@
         <v>481516.466</v>
       </c>
       <c r="G21">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H21">
         <v>334822.581</v>
@@ -68835,7 +68961,7 @@
         <v>596492.087</v>
       </c>
       <c r="G22">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H22">
         <v>622294.607</v>
@@ -68912,7 +69038,7 @@
         <v>657300.563</v>
       </c>
       <c r="G23">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H23">
         <v>834214.744</v>
@@ -68989,7 +69115,7 @@
         <v>891104.521</v>
       </c>
       <c r="G24">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H24">
         <v>949413.965</v>
@@ -69066,7 +69192,7 @@
         <v>764506.922</v>
       </c>
       <c r="G25">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H25">
         <v>803219.612</v>
@@ -69143,7 +69269,7 @@
         <v>500398.898</v>
       </c>
       <c r="G26">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H26">
         <v>519287.84</v>
@@ -69220,7 +69346,7 @@
         <v>699456.239</v>
       </c>
       <c r="G27">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H27">
         <v>692094.145</v>
@@ -69297,7 +69423,7 @@
         <v>668457.168</v>
       </c>
       <c r="G28">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H28">
         <v>558317.285</v>
@@ -69374,7 +69500,7 @@
         <v>788230.189</v>
       </c>
       <c r="G29">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H29">
         <v>705283.319</v>
@@ -69451,7 +69577,7 @@
         <v>647650.224</v>
       </c>
       <c r="G30">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H30">
         <v>619194.623</v>
@@ -69528,7 +69654,7 @@
         <v>576435.382</v>
       </c>
       <c r="G31">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H31">
         <v>614432.972</v>
@@ -69605,7 +69731,7 @@
         <v>488362.487</v>
       </c>
       <c r="G32">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H32">
         <v>355102.392</v>
@@ -69836,7 +69962,7 @@
         <v>490874.545</v>
       </c>
       <c r="G35">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H35">
         <v>536737.567</v>
@@ -69913,7 +70039,7 @@
         <v>631909.464</v>
       </c>
       <c r="G36">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H36">
         <v>588371.486</v>
@@ -69990,7 +70116,7 @@
         <v>469731.185</v>
       </c>
       <c r="G37">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H37">
         <v>460407.589</v>
@@ -70144,7 +70270,7 @@
         <v>569675.772</v>
       </c>
       <c r="G39">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H39">
         <v>498003.081</v>
@@ -70524,6 +70650,12 @@
       </c>
       <c r="E44">
         <v>4</v>
+      </c>
+      <c r="F44">
+        <v>469354.491</v>
+      </c>
+      <c r="G44">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -70716,7 +70848,7 @@
         <v>1215128.77</v>
       </c>
       <c r="G5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H5">
         <v>1233940.811</v>
@@ -70793,7 +70925,7 @@
         <v>999506.376</v>
       </c>
       <c r="G6">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H6">
         <v>950533.253</v>
@@ -70870,7 +71002,7 @@
         <v>1096905.199</v>
       </c>
       <c r="G7">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H7">
         <v>1163843.055</v>
@@ -70947,7 +71079,7 @@
         <v>1086472.393</v>
       </c>
       <c r="G8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H8">
         <v>1100111.917</v>
@@ -71024,7 +71156,7 @@
         <v>798098.317</v>
       </c>
       <c r="G9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H9">
         <v>858860.744</v>
@@ -71101,7 +71233,7 @@
         <v>807797.716</v>
       </c>
       <c r="G10">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H10">
         <v>878639.992</v>
@@ -71178,7 +71310,7 @@
         <v>813476.045</v>
       </c>
       <c r="G11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H11">
         <v>1013200.618</v>
@@ -71255,7 +71387,7 @@
         <v>892772.133</v>
       </c>
       <c r="G12">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H12">
         <v>965799.546</v>
@@ -71332,7 +71464,7 @@
         <v>1020191.857</v>
       </c>
       <c r="G13">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H13">
         <v>1125478.342</v>
@@ -71397,7 +71529,7 @@
         <v>929832.013</v>
       </c>
       <c r="G14">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H14">
         <v>1000399.341</v>
@@ -71474,7 +71606,7 @@
         <v>857880.425</v>
       </c>
       <c r="G15">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H15">
         <v>782813.387</v>
@@ -71551,7 +71683,7 @@
         <v>853281.045</v>
       </c>
       <c r="G16">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H16">
         <v>707975.781</v>
@@ -71628,7 +71760,7 @@
         <v>812927.419</v>
       </c>
       <c r="G17">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H17">
         <v>812483.262</v>
@@ -71705,7 +71837,7 @@
         <v>675511.457</v>
       </c>
       <c r="G18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H18">
         <v>746464.777</v>
@@ -71782,7 +71914,7 @@
         <v>825528.798</v>
       </c>
       <c r="G19">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H19">
         <v>893908.881</v>
@@ -71859,7 +71991,7 @@
         <v>894415.765</v>
       </c>
       <c r="G20">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H20">
         <v>888601.34</v>
@@ -71936,7 +72068,7 @@
         <v>689707.654</v>
       </c>
       <c r="G21">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H21">
         <v>488590.75</v>
@@ -72013,7 +72145,7 @@
         <v>823662.507</v>
       </c>
       <c r="G22">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H22">
         <v>838910.272</v>
@@ -72090,7 +72222,7 @@
         <v>892378.01</v>
       </c>
       <c r="G23">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H23">
         <v>1057838.592</v>
@@ -72167,7 +72299,7 @@
         <v>1077777.622</v>
       </c>
       <c r="G24">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H24">
         <v>1142795.762</v>
@@ -72244,7 +72376,7 @@
         <v>937685.697</v>
       </c>
       <c r="G25">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H25">
         <v>1028268.408</v>
@@ -72321,7 +72453,7 @@
         <v>724029.247</v>
       </c>
       <c r="G26">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H26">
         <v>750410.397</v>
@@ -72398,7 +72530,7 @@
         <v>901532.624</v>
       </c>
       <c r="G27">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H27">
         <v>895290.621</v>
@@ -72475,7 +72607,7 @@
         <v>853403.702</v>
       </c>
       <c r="G28">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H28">
         <v>767117.382</v>
@@ -72552,7 +72684,7 @@
         <v>987205.622</v>
       </c>
       <c r="G29">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H29">
         <v>947376.722</v>
@@ -72629,7 +72761,7 @@
         <v>882021.58</v>
       </c>
       <c r="G30">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H30">
         <v>830934.535</v>
@@ -72706,7 +72838,7 @@
         <v>768600.229</v>
       </c>
       <c r="G31">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H31">
         <v>799969.298</v>
@@ -72783,7 +72915,7 @@
         <v>714923.451</v>
       </c>
       <c r="G32">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H32">
         <v>591453.655</v>
@@ -73014,7 +73146,7 @@
         <v>679328.634</v>
       </c>
       <c r="G35">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H35">
         <v>758164.973</v>
@@ -73091,7 +73223,7 @@
         <v>842659.096</v>
       </c>
       <c r="G36">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H36">
         <v>856875.1</v>
@@ -73168,7 +73300,7 @@
         <v>698124.244</v>
       </c>
       <c r="G37">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H37">
         <v>687635.24</v>
@@ -73322,7 +73454,7 @@
         <v>750382.586</v>
       </c>
       <c r="G39">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H39">
         <v>709935.955</v>
@@ -73702,6 +73834,12 @@
       </c>
       <c r="E44">
         <v>5</v>
+      </c>
+      <c r="F44">
+        <v>663644.965</v>
+      </c>
+      <c r="G44">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -75268,7 +75406,7 @@
         <v>927642.358</v>
       </c>
       <c r="G23">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H23">
         <v>918169.8</v>
@@ -75422,7 +75560,7 @@
         <v>928291.936</v>
       </c>
       <c r="G25">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H25">
         <v>931333.056</v>
@@ -75499,7 +75637,7 @@
         <v>930595.365</v>
       </c>
       <c r="G26">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H26">
         <v>931520.309</v>
@@ -75576,7 +75714,7 @@
         <v>933565.534</v>
       </c>
       <c r="G27">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H27">
         <v>924039.329</v>
@@ -75884,7 +76022,7 @@
         <v>930473.178</v>
       </c>
       <c r="G31">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H31">
         <v>929694.515</v>
@@ -76115,7 +76253,7 @@
         <v>932158.856</v>
       </c>
       <c r="G34">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H34">
         <v>908688.122</v>
@@ -76346,7 +76484,7 @@
         <v>929404.552</v>
       </c>
       <c r="G37">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H37">
         <v>926313.591</v>
@@ -76423,7 +76561,7 @@
         <v>932594.924</v>
       </c>
       <c r="G38">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H38">
         <v>926897.399</v>
@@ -76577,7 +76715,7 @@
         <v>927959.049</v>
       </c>
       <c r="G40">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H40">
         <v>917362.316</v>
@@ -76879,6 +77017,12 @@
         <v>926317.159</v>
       </c>
       <c r="E44">
+        <v>31</v>
+      </c>
+      <c r="F44">
+        <v>927475.227</v>
+      </c>
+      <c r="G44">
         <v>31</v>
       </c>
     </row>
@@ -77072,7 +77216,7 @@
         <v>940219.39</v>
       </c>
       <c r="G5">
-        <v>21</v>
+        <v>21.5</v>
       </c>
       <c r="H5">
         <v>940219.39</v>
@@ -77149,7 +77293,7 @@
         <v>940219.39</v>
       </c>
       <c r="G6">
-        <v>21</v>
+        <v>21.5</v>
       </c>
       <c r="H6">
         <v>940219.39</v>
@@ -77226,7 +77370,7 @@
         <v>940219.39</v>
       </c>
       <c r="G7">
-        <v>21</v>
+        <v>21.5</v>
       </c>
       <c r="H7">
         <v>940219.39</v>
@@ -77303,7 +77447,7 @@
         <v>940219.39</v>
       </c>
       <c r="G8">
-        <v>21</v>
+        <v>21.5</v>
       </c>
       <c r="H8">
         <v>940219.39</v>
@@ -77380,7 +77524,7 @@
         <v>940219.39</v>
       </c>
       <c r="G9">
-        <v>21</v>
+        <v>21.5</v>
       </c>
       <c r="H9">
         <v>940219.39</v>
@@ -77457,7 +77601,7 @@
         <v>940219.39</v>
       </c>
       <c r="G10">
-        <v>21</v>
+        <v>21.5</v>
       </c>
       <c r="H10">
         <v>940219.39</v>
@@ -77534,7 +77678,7 @@
         <v>940219.39</v>
       </c>
       <c r="G11">
-        <v>21</v>
+        <v>21.5</v>
       </c>
       <c r="H11">
         <v>940219.39</v>
@@ -77611,7 +77755,7 @@
         <v>940219.39</v>
       </c>
       <c r="G12">
-        <v>21</v>
+        <v>21.5</v>
       </c>
       <c r="H12">
         <v>940219.39</v>
@@ -77688,7 +77832,7 @@
         <v>940219.39</v>
       </c>
       <c r="G13">
-        <v>21</v>
+        <v>21.5</v>
       </c>
       <c r="H13">
         <v>940219.39</v>
@@ -77753,7 +77897,7 @@
         <v>940219.39</v>
       </c>
       <c r="G14">
-        <v>21</v>
+        <v>21.5</v>
       </c>
       <c r="H14">
         <v>940219.39</v>
@@ -77907,7 +78051,7 @@
         <v>940219.39</v>
       </c>
       <c r="G16">
-        <v>21</v>
+        <v>21.5</v>
       </c>
       <c r="H16">
         <v>940198.2</v>
@@ -77984,7 +78128,7 @@
         <v>940219.39</v>
       </c>
       <c r="G17">
-        <v>21</v>
+        <v>21.5</v>
       </c>
       <c r="H17">
         <v>940219.39</v>
@@ -78061,7 +78205,7 @@
         <v>940219.39</v>
       </c>
       <c r="G18">
-        <v>21</v>
+        <v>21.5</v>
       </c>
       <c r="H18">
         <v>940219.39</v>
@@ -78138,7 +78282,7 @@
         <v>940219.39</v>
       </c>
       <c r="G19">
-        <v>21</v>
+        <v>21.5</v>
       </c>
       <c r="H19">
         <v>940219.39</v>
@@ -78215,7 +78359,7 @@
         <v>940219.39</v>
       </c>
       <c r="G20">
-        <v>21</v>
+        <v>21.5</v>
       </c>
       <c r="H20">
         <v>940219.39</v>
@@ -78292,7 +78436,7 @@
         <v>940219.39</v>
       </c>
       <c r="G21">
-        <v>21</v>
+        <v>21.5</v>
       </c>
       <c r="H21">
         <v>940114.419</v>
@@ -78369,7 +78513,7 @@
         <v>940219.39</v>
       </c>
       <c r="G22">
-        <v>21</v>
+        <v>21.5</v>
       </c>
       <c r="H22">
         <v>940219.39</v>
@@ -78446,7 +78590,7 @@
         <v>940219.39</v>
       </c>
       <c r="G23">
-        <v>21</v>
+        <v>21.5</v>
       </c>
       <c r="H23">
         <v>940219.39</v>
@@ -78523,7 +78667,7 @@
         <v>940219.39</v>
       </c>
       <c r="G24">
-        <v>21</v>
+        <v>21.5</v>
       </c>
       <c r="H24">
         <v>940198.501</v>
@@ -78600,7 +78744,7 @@
         <v>940219.39</v>
       </c>
       <c r="G25">
-        <v>21</v>
+        <v>21.5</v>
       </c>
       <c r="H25">
         <v>940219.39</v>
@@ -78677,7 +78821,7 @@
         <v>940219.39</v>
       </c>
       <c r="G26">
-        <v>21</v>
+        <v>21.5</v>
       </c>
       <c r="H26">
         <v>940219.39</v>
@@ -78754,7 +78898,7 @@
         <v>940219.39</v>
       </c>
       <c r="G27">
-        <v>21</v>
+        <v>21.5</v>
       </c>
       <c r="H27">
         <v>940219.39</v>
@@ -78831,7 +78975,7 @@
         <v>940219.39</v>
       </c>
       <c r="G28">
-        <v>21</v>
+        <v>21.5</v>
       </c>
       <c r="H28">
         <v>940219.39</v>
@@ -78908,7 +79052,7 @@
         <v>940219.39</v>
       </c>
       <c r="G29">
-        <v>21</v>
+        <v>21.5</v>
       </c>
       <c r="H29">
         <v>940051.811</v>
@@ -78985,7 +79129,7 @@
         <v>940219.39</v>
       </c>
       <c r="G30">
-        <v>21</v>
+        <v>21.5</v>
       </c>
       <c r="H30">
         <v>940198.175</v>
@@ -79062,7 +79206,7 @@
         <v>940219.39</v>
       </c>
       <c r="G31">
-        <v>21</v>
+        <v>21.5</v>
       </c>
       <c r="H31">
         <v>940219.39</v>
@@ -79216,7 +79360,7 @@
         <v>940219.39</v>
       </c>
       <c r="G33">
-        <v>21</v>
+        <v>21.5</v>
       </c>
       <c r="H33">
         <v>940219.39</v>
@@ -79293,7 +79437,7 @@
         <v>940219.39</v>
       </c>
       <c r="G34">
-        <v>21</v>
+        <v>21.5</v>
       </c>
       <c r="H34">
         <v>940219.39</v>
@@ -79370,7 +79514,7 @@
         <v>940219.39</v>
       </c>
       <c r="G35">
-        <v>21</v>
+        <v>21.5</v>
       </c>
       <c r="H35">
         <v>940219.39</v>
@@ -79447,7 +79591,7 @@
         <v>940219.39</v>
       </c>
       <c r="G36">
-        <v>21</v>
+        <v>21.5</v>
       </c>
       <c r="H36">
         <v>940219.39</v>
@@ -79524,7 +79668,7 @@
         <v>940219.39</v>
       </c>
       <c r="G37">
-        <v>21</v>
+        <v>21.5</v>
       </c>
       <c r="H37">
         <v>940219.39</v>
@@ -79601,7 +79745,7 @@
         <v>940219.39</v>
       </c>
       <c r="G38">
-        <v>21</v>
+        <v>21.5</v>
       </c>
       <c r="H38">
         <v>940219.39</v>
@@ -79678,7 +79822,7 @@
         <v>940219.39</v>
       </c>
       <c r="G39">
-        <v>21</v>
+        <v>21.5</v>
       </c>
       <c r="H39">
         <v>940219.39</v>
@@ -79755,7 +79899,7 @@
         <v>940219.39</v>
       </c>
       <c r="G40">
-        <v>21</v>
+        <v>21.5</v>
       </c>
       <c r="H40">
         <v>940219.39</v>
@@ -79832,7 +79976,7 @@
         <v>940219.39</v>
       </c>
       <c r="G41">
-        <v>21</v>
+        <v>21.5</v>
       </c>
       <c r="H41">
         <v>940198.476</v>
@@ -79909,7 +80053,7 @@
         <v>940219.39</v>
       </c>
       <c r="G42">
-        <v>21</v>
+        <v>21.5</v>
       </c>
       <c r="H42">
         <v>934117.801</v>
@@ -79986,7 +80130,7 @@
         <v>940219.39</v>
       </c>
       <c r="G43">
-        <v>21</v>
+        <v>21.5</v>
       </c>
       <c r="H43">
         <v>940219.39</v>
@@ -80058,6 +80202,12 @@
       </c>
       <c r="E44">
         <v>22.5</v>
+      </c>
+      <c r="F44">
+        <v>940219.39</v>
+      </c>
+      <c r="G44">
+        <v>21.5</v>
       </c>
     </row>
   </sheetData>
@@ -80250,7 +80400,7 @@
         <v>398030.224</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H5">
         <v>258390.384</v>
@@ -80327,7 +80477,7 @@
         <v>550726.224</v>
       </c>
       <c r="G6">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H6">
         <v>456548.042</v>
@@ -80404,7 +80554,7 @@
         <v>500319.295</v>
       </c>
       <c r="G7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H7">
         <v>333553.948</v>
@@ -80481,7 +80631,7 @@
         <v>415200.236</v>
       </c>
       <c r="G8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H8">
         <v>407591.84</v>
@@ -80558,7 +80708,7 @@
         <v>532220.449</v>
       </c>
       <c r="G9">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H9">
         <v>443165.794</v>
@@ -80635,7 +80785,7 @@
         <v>582018.487</v>
       </c>
       <c r="G10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H10">
         <v>530730.824</v>
@@ -80712,7 +80862,7 @@
         <v>496628.209</v>
       </c>
       <c r="G11">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H11">
         <v>569751.886</v>
@@ -80789,7 +80939,7 @@
         <v>520119.471</v>
       </c>
       <c r="G12">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H12">
         <v>418725.67</v>
@@ -80866,7 +81016,7 @@
         <v>479610.353</v>
       </c>
       <c r="G13">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H13">
         <v>440603.483</v>
@@ -80931,7 +81081,7 @@
         <v>579507.553</v>
       </c>
       <c r="G14">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H14">
         <v>477690.204</v>
@@ -81008,7 +81158,7 @@
         <v>303808.772</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15">
         <v>208832.599</v>
@@ -81085,7 +81235,7 @@
         <v>607184.304</v>
       </c>
       <c r="G16">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H16">
         <v>421959.033</v>
@@ -81162,7 +81312,7 @@
         <v>565038.338</v>
       </c>
       <c r="G17">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H17">
         <v>504878.501</v>
@@ -81239,7 +81389,7 @@
         <v>646841.925</v>
       </c>
       <c r="G18">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H18">
         <v>491284.004</v>
@@ -81316,7 +81466,7 @@
         <v>501749.806</v>
       </c>
       <c r="G19">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H19">
         <v>366645.885</v>
@@ -81393,7 +81543,7 @@
         <v>557446.438</v>
       </c>
       <c r="G20">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H20">
         <v>504849.588</v>
@@ -81470,7 +81620,7 @@
         <v>586850.234</v>
       </c>
       <c r="G21">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H21">
         <v>504164.277</v>
@@ -81547,7 +81697,7 @@
         <v>333134.022</v>
       </c>
       <c r="G22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H22">
         <v>262674.108</v>
@@ -81624,7 +81774,7 @@
         <v>496336.185</v>
       </c>
       <c r="G23">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H23">
         <v>355454.054</v>
@@ -81701,7 +81851,7 @@
         <v>546938.241</v>
       </c>
       <c r="G24">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H24">
         <v>400628.398</v>
@@ -81778,7 +81928,7 @@
         <v>622392.732</v>
       </c>
       <c r="G25">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H25">
         <v>625267.467</v>
@@ -81855,7 +82005,7 @@
         <v>514012.349</v>
       </c>
       <c r="G26">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H26">
         <v>483252.677</v>
@@ -81932,7 +82082,7 @@
         <v>392789.77</v>
       </c>
       <c r="G27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H27">
         <v>396201.356</v>
@@ -82009,7 +82159,7 @@
         <v>445950.938</v>
       </c>
       <c r="G28">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H28">
         <v>314225.895</v>
@@ -82086,7 +82236,7 @@
         <v>426415.411</v>
       </c>
       <c r="G29">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H29">
         <v>285291.792</v>
@@ -82163,7 +82313,7 @@
         <v>452438.17</v>
       </c>
       <c r="G30">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H30">
         <v>335352.575</v>
@@ -82240,7 +82390,7 @@
         <v>417914.811</v>
       </c>
       <c r="G31">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H31">
         <v>431657.801</v>
@@ -82317,7 +82467,7 @@
         <v>460129.076</v>
       </c>
       <c r="G32">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H32">
         <v>463931.131</v>
@@ -82394,7 +82544,7 @@
         <v>537738.123</v>
       </c>
       <c r="G33">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H33">
         <v>395279.22</v>
@@ -82471,7 +82621,7 @@
         <v>714705.445</v>
       </c>
       <c r="G34">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H34">
         <v>599718.449</v>
@@ -82548,7 +82698,7 @@
         <v>575027.822</v>
       </c>
       <c r="G35">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H35">
         <v>634183.027</v>
@@ -82625,7 +82775,7 @@
         <v>697212.84</v>
       </c>
       <c r="G36">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H36">
         <v>579966.265</v>
@@ -82702,7 +82852,7 @@
         <v>428536.505</v>
       </c>
       <c r="G37">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H37">
         <v>401159.288</v>
@@ -82779,7 +82929,7 @@
         <v>814056.822</v>
       </c>
       <c r="G38">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H38">
         <v>730216.84</v>
@@ -82856,7 +83006,7 @@
         <v>673933.528</v>
       </c>
       <c r="G39">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H39">
         <v>553786.307</v>
@@ -82933,7 +83083,7 @@
         <v>469610.712</v>
       </c>
       <c r="G40">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H40">
         <v>345491.542</v>
@@ -83010,7 +83160,7 @@
         <v>361461.329</v>
       </c>
       <c r="G41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H41">
         <v>346918.29</v>
@@ -83087,7 +83237,7 @@
         <v>395580.122</v>
       </c>
       <c r="G42">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H42">
         <v>317833.006</v>
@@ -83164,7 +83314,7 @@
         <v>418579.458</v>
       </c>
       <c r="G43">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H43">
         <v>237614.752</v>
@@ -83235,6 +83385,12 @@
         <v>144195.804</v>
       </c>
       <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>164994.002</v>
+      </c>
+      <c r="G44">
         <v>1</v>
       </c>
     </row>
@@ -83428,7 +83584,7 @@
         <v>638262.988</v>
       </c>
       <c r="G5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H5">
         <v>423025.159</v>
@@ -83505,7 +83661,7 @@
         <v>811736.438</v>
       </c>
       <c r="G6">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H6">
         <v>726018.225</v>
@@ -83582,7 +83738,7 @@
         <v>739331.691</v>
       </c>
       <c r="G7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H7">
         <v>522117.381</v>
@@ -83659,7 +83815,7 @@
         <v>611289.254</v>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H8">
         <v>608333.754</v>
@@ -83736,7 +83892,7 @@
         <v>786739.315</v>
       </c>
       <c r="G9">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H9">
         <v>668697.379</v>
@@ -83813,7 +83969,7 @@
         <v>887004.782</v>
       </c>
       <c r="G10">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H10">
         <v>807328.054</v>
@@ -83890,7 +84046,7 @@
         <v>730472.921</v>
       </c>
       <c r="G11">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H11">
         <v>788081.691</v>
@@ -83967,7 +84123,7 @@
         <v>777921.415</v>
       </c>
       <c r="G12">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H12">
         <v>659614.238</v>
@@ -84044,7 +84200,7 @@
         <v>671618.616</v>
       </c>
       <c r="G13">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H13">
         <v>632377.211</v>
@@ -84109,7 +84265,7 @@
         <v>821867.307</v>
       </c>
       <c r="G14">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H14">
         <v>759898.303</v>
@@ -84186,7 +84342,7 @@
         <v>546235.158</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H15">
         <v>402393.228</v>
@@ -84263,7 +84419,7 @@
         <v>821893.996</v>
       </c>
       <c r="G16">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H16">
         <v>666148.155</v>
@@ -84340,7 +84496,7 @@
         <v>787839.642</v>
       </c>
       <c r="G17">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H17">
         <v>741288.318</v>
@@ -84417,7 +84573,7 @@
         <v>872115.973</v>
       </c>
       <c r="G18">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H18">
         <v>726132.136</v>
@@ -84494,7 +84650,7 @@
         <v>730694.691</v>
       </c>
       <c r="G19">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H19">
         <v>590738.605</v>
@@ -84571,7 +84727,7 @@
         <v>827088.352</v>
       </c>
       <c r="G20">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H20">
         <v>774375.877</v>
@@ -84648,7 +84804,7 @@
         <v>829461.726</v>
       </c>
       <c r="G21">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H21">
         <v>786452.817</v>
@@ -84725,7 +84881,7 @@
         <v>514754.023</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H22">
         <v>461552.614</v>
@@ -84802,7 +84958,7 @@
         <v>755854.804</v>
       </c>
       <c r="G23">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H23">
         <v>591768.348</v>
@@ -84879,7 +85035,7 @@
         <v>801618.631</v>
       </c>
       <c r="G24">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H24">
         <v>636432.51</v>
@@ -84956,7 +85112,7 @@
         <v>865705.654</v>
       </c>
       <c r="G25">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H25">
         <v>879807.503</v>
@@ -85033,7 +85189,7 @@
         <v>734070.397</v>
       </c>
       <c r="G26">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H26">
         <v>696738.907</v>
@@ -85110,7 +85266,7 @@
         <v>578294.049</v>
       </c>
       <c r="G27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H27">
         <v>599199.807</v>
@@ -85187,7 +85343,7 @@
         <v>661807.738</v>
       </c>
       <c r="G28">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H28">
         <v>487704.569</v>
@@ -85264,7 +85420,7 @@
         <v>628422.393</v>
       </c>
       <c r="G29">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H29">
         <v>444014.837</v>
@@ -85341,7 +85497,7 @@
         <v>666744.189</v>
       </c>
       <c r="G30">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H30">
         <v>550287.456</v>
@@ -85418,7 +85574,7 @@
         <v>622102.281</v>
       </c>
       <c r="G31">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H31">
         <v>654400.194</v>
@@ -85495,7 +85651,7 @@
         <v>662727.606</v>
       </c>
       <c r="G32">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H32">
         <v>706492.977</v>
@@ -85572,7 +85728,7 @@
         <v>788408.985</v>
       </c>
       <c r="G33">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H33">
         <v>641675.235</v>
@@ -85649,7 +85805,7 @@
         <v>997307.429</v>
       </c>
       <c r="G34">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H34">
         <v>837775.073</v>
@@ -85726,7 +85882,7 @@
         <v>809567.13</v>
       </c>
       <c r="G35">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H35">
         <v>918510.525</v>
@@ -85803,7 +85959,7 @@
         <v>936364.835</v>
       </c>
       <c r="G36">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H36">
         <v>819200.228</v>
@@ -85880,7 +86036,7 @@
         <v>649501.131</v>
       </c>
       <c r="G37">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H37">
         <v>621653.739</v>
@@ -85957,7 +86113,7 @@
         <v>1060829.753</v>
       </c>
       <c r="G38">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H38">
         <v>1036921.092</v>
@@ -86034,7 +86190,7 @@
         <v>903107.968</v>
       </c>
       <c r="G39">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H39">
         <v>808484.101</v>
@@ -86111,7 +86267,7 @@
         <v>724940.174</v>
       </c>
       <c r="G40">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H40">
         <v>559509.056</v>
@@ -86188,7 +86344,7 @@
         <v>565101.604</v>
       </c>
       <c r="G41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H41">
         <v>552706.534</v>
@@ -86265,7 +86421,7 @@
         <v>635006.803</v>
       </c>
       <c r="G42">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H42">
         <v>559877.712</v>
@@ -86342,7 +86498,7 @@
         <v>621509.319</v>
       </c>
       <c r="G43">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H43">
         <v>429867.349</v>
@@ -86413,6 +86569,12 @@
         <v>293302.427</v>
       </c>
       <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>301797.216</v>
+      </c>
+      <c r="G44">
         <v>1</v>
       </c>
     </row>
@@ -87595,7 +87757,7 @@
         <v>737678.411</v>
       </c>
       <c r="G18">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H18">
         <v>736706.597</v>
@@ -88134,7 +88296,7 @@
         <v>737659.336</v>
       </c>
       <c r="G25">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H25">
         <v>735078.654</v>
@@ -88288,7 +88450,7 @@
         <v>743732.926</v>
       </c>
       <c r="G27">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H27">
         <v>735645.233</v>
@@ -88596,7 +88758,7 @@
         <v>742449.915</v>
       </c>
       <c r="G31">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H31">
         <v>732384.226</v>
@@ -88673,7 +88835,7 @@
         <v>738105.522</v>
       </c>
       <c r="G32">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H32">
         <v>731254.557</v>
@@ -89135,7 +89297,7 @@
         <v>739979.701</v>
       </c>
       <c r="G38">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H38">
         <v>743198.227</v>
@@ -89212,7 +89374,7 @@
         <v>744945.934</v>
       </c>
       <c r="G39">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H39">
         <v>739684.968</v>
@@ -89520,7 +89682,7 @@
         <v>738770.743</v>
       </c>
       <c r="G43">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H43">
         <v>737559.189</v>
@@ -89592,6 +89754,12 @@
       </c>
       <c r="E44">
         <v>22</v>
+      </c>
+      <c r="F44">
+        <v>737258.065</v>
+      </c>
+      <c r="G44">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
